--- a/data/masterlist.xlsx
+++ b/data/masterlist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasiabernat/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasiabernat/Desktop/git_repositories/extreme-flight-trials/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D3B2D2-714D-C044-892D-4E5E45E502E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF165D10-9E88-9444-AD97-83CA6F0E27CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="540" windowWidth="27280" windowHeight="16620" xr2:uid="{CE040209-3C16-F54B-BD28-83BB5606938B}"/>
+    <workbookView xWindow="2140" yWindow="500" windowWidth="27280" windowHeight="16620" xr2:uid="{CE040209-3C16-F54B-BD28-83BB5606938B}"/>
   </bookViews>
   <sheets>
     <sheet name="egg_tube_data3" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4836" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5071" uniqueCount="100">
   <si>
     <t>gen1_ID</t>
   </si>
@@ -319,6 +319,12 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>ethanol</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
 </sst>
 </file>
@@ -800,8 +806,8 @@
   <dimension ref="A1:M1271"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A733" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F758" sqref="F758"/>
+      <pane ySplit="1" topLeftCell="A737" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I749" sqref="I749"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -817,10 +823,10 @@
     <col min="9" max="9" width="3.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.5" customWidth="1"/>
     <col min="11" max="11" width="5" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="12" max="13" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="16" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="16" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -857,8 +863,11 @@
       <c r="L1" s="15" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M1" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
         <v>1001</v>
       </c>
@@ -885,8 +894,9 @@
         <v>30</v>
       </c>
       <c r="L2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>1002</v>
       </c>
@@ -913,8 +923,9 @@
         <v>30</v>
       </c>
       <c r="L3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <v>1003</v>
       </c>
@@ -949,8 +960,11 @@
         <v>30</v>
       </c>
       <c r="L4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M4" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
         <v>1004</v>
       </c>
@@ -975,8 +989,9 @@
         <v>30</v>
       </c>
       <c r="L5" s="5"/>
-    </row>
-    <row r="6" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <v>1005</v>
       </c>
@@ -1011,8 +1026,11 @@
         <v>30</v>
       </c>
       <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M6" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17">
         <v>1006</v>
       </c>
@@ -1037,8 +1055,9 @@
         <v>30</v>
       </c>
       <c r="L7" s="5"/>
-    </row>
-    <row r="8" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17">
         <v>1007</v>
       </c>
@@ -1073,8 +1092,11 @@
         <v>30</v>
       </c>
       <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M8" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17">
         <v>1008</v>
       </c>
@@ -1105,8 +1127,9 @@
         <v>30</v>
       </c>
       <c r="L9" s="5"/>
-    </row>
-    <row r="10" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17">
         <v>1009</v>
       </c>
@@ -1141,8 +1164,11 @@
         <v>30</v>
       </c>
       <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M10" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17">
         <v>1010</v>
       </c>
@@ -1177,8 +1203,11 @@
         <v>30</v>
       </c>
       <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M11" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17">
         <v>1011</v>
       </c>
@@ -1213,8 +1242,11 @@
         <v>30</v>
       </c>
       <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M12" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17">
         <v>1012</v>
       </c>
@@ -1239,8 +1271,9 @@
         <v>30</v>
       </c>
       <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17">
         <v>1013</v>
       </c>
@@ -1275,8 +1308,11 @@
         <v>30</v>
       </c>
       <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M14" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17">
         <v>1014</v>
       </c>
@@ -1303,8 +1339,9 @@
         <v>30</v>
       </c>
       <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="17">
         <v>1015</v>
       </c>
@@ -1337,8 +1374,9 @@
         <v>30</v>
       </c>
       <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17">
         <v>1016</v>
       </c>
@@ -1373,8 +1411,11 @@
         <v>30</v>
       </c>
       <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M17" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17">
         <v>1017</v>
       </c>
@@ -1409,8 +1450,11 @@
         <v>30</v>
       </c>
       <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M18" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="17">
         <v>1018</v>
       </c>
@@ -1433,8 +1477,9 @@
         <v>33</v>
       </c>
       <c r="L19" s="5"/>
-    </row>
-    <row r="20" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M19" s="5"/>
+    </row>
+    <row r="20" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="17">
         <v>1019</v>
       </c>
@@ -1465,8 +1510,9 @@
         <v>30</v>
       </c>
       <c r="L20" s="5"/>
-    </row>
-    <row r="21" spans="1:12" s="4" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M20" s="5"/>
+    </row>
+    <row r="21" spans="1:13" s="4" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <v>1020</v>
       </c>
@@ -1499,8 +1545,11 @@
         <v>30</v>
       </c>
       <c r="L21" s="7"/>
-    </row>
-    <row r="22" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M21" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="19">
         <v>1021</v>
       </c>
@@ -1525,8 +1574,9 @@
         <v>33</v>
       </c>
       <c r="L22" s="8"/>
-    </row>
-    <row r="23" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M22" s="8"/>
+    </row>
+    <row r="23" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="17">
         <v>1022</v>
       </c>
@@ -1557,8 +1607,9 @@
         <v>30</v>
       </c>
       <c r="L23" s="5"/>
-    </row>
-    <row r="24" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M23" s="5"/>
+    </row>
+    <row r="24" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17">
         <v>1023</v>
       </c>
@@ -1589,8 +1640,9 @@
         <v>30</v>
       </c>
       <c r="L24" s="5"/>
-    </row>
-    <row r="25" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M24" s="5"/>
+    </row>
+    <row r="25" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17">
         <v>1024</v>
       </c>
@@ -1625,8 +1677,11 @@
         <v>30</v>
       </c>
       <c r="L25" s="5"/>
-    </row>
-    <row r="26" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M25" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="17">
         <v>1025</v>
       </c>
@@ -1653,8 +1708,9 @@
         <v>30</v>
       </c>
       <c r="L26" s="5"/>
-    </row>
-    <row r="27" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M26" s="5"/>
+    </row>
+    <row r="27" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="17">
         <v>1026</v>
       </c>
@@ -1689,8 +1745,11 @@
         <v>30</v>
       </c>
       <c r="L27" s="5"/>
-    </row>
-    <row r="28" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M27" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17">
         <v>1027</v>
       </c>
@@ -1721,8 +1780,9 @@
         <v>30</v>
       </c>
       <c r="L28" s="5"/>
-    </row>
-    <row r="29" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M28" s="5"/>
+    </row>
+    <row r="29" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="17">
         <v>1028</v>
       </c>
@@ -1747,8 +1807,9 @@
         <v>30</v>
       </c>
       <c r="L29" s="5"/>
-    </row>
-    <row r="30" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M29" s="5"/>
+    </row>
+    <row r="30" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17">
         <v>1029</v>
       </c>
@@ -1783,8 +1844,11 @@
         <v>30</v>
       </c>
       <c r="L30" s="5"/>
-    </row>
-    <row r="31" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M30" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17">
         <v>1030</v>
       </c>
@@ -1819,8 +1883,11 @@
         <v>30</v>
       </c>
       <c r="L31" s="5"/>
-    </row>
-    <row r="32" spans="1:12" s="4" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M31" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="4" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
         <v>1031</v>
       </c>
@@ -1847,8 +1914,9 @@
         <v>30</v>
       </c>
       <c r="L32" s="7"/>
-    </row>
-    <row r="33" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M32" s="7"/>
+    </row>
+    <row r="33" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="19">
         <v>1032</v>
       </c>
@@ -1879,8 +1947,9 @@
         <v>30</v>
       </c>
       <c r="L33" s="8"/>
-    </row>
-    <row r="34" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M33" s="8"/>
+    </row>
+    <row r="34" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="17">
         <v>1033</v>
       </c>
@@ -1907,8 +1976,9 @@
         <v>30</v>
       </c>
       <c r="L34" s="5"/>
-    </row>
-    <row r="35" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M34" s="5"/>
+    </row>
+    <row r="35" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="17">
         <v>1034</v>
       </c>
@@ -1933,8 +2003,9 @@
         <v>30</v>
       </c>
       <c r="L35" s="5"/>
-    </row>
-    <row r="36" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M35" s="5"/>
+    </row>
+    <row r="36" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="17">
         <v>1035</v>
       </c>
@@ -1967,8 +2038,9 @@
         <v>30</v>
       </c>
       <c r="L36" s="5"/>
-    </row>
-    <row r="37" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M36" s="5"/>
+    </row>
+    <row r="37" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="17">
         <v>1036</v>
       </c>
@@ -2001,8 +2073,9 @@
         <v>30</v>
       </c>
       <c r="L37" s="5"/>
-    </row>
-    <row r="38" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M37" s="5"/>
+    </row>
+    <row r="38" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="17">
         <v>1037</v>
       </c>
@@ -2033,8 +2106,9 @@
         <v>30</v>
       </c>
       <c r="L38" s="5"/>
-    </row>
-    <row r="39" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M38" s="5"/>
+    </row>
+    <row r="39" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="17">
         <v>1038</v>
       </c>
@@ -2065,8 +2139,9 @@
         <v>30</v>
       </c>
       <c r="L39" s="5"/>
-    </row>
-    <row r="40" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M39" s="5"/>
+    </row>
+    <row r="40" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="17">
         <v>1039</v>
       </c>
@@ -2101,8 +2176,11 @@
         <v>30</v>
       </c>
       <c r="L40" s="5"/>
-    </row>
-    <row r="41" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M40" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="17">
         <v>1040</v>
       </c>
@@ -2133,8 +2211,9 @@
         <v>30</v>
       </c>
       <c r="L41" s="5"/>
-    </row>
-    <row r="42" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M41" s="5"/>
+    </row>
+    <row r="42" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="17">
         <v>1041</v>
       </c>
@@ -2165,8 +2244,9 @@
         <v>30</v>
       </c>
       <c r="L42" s="5"/>
-    </row>
-    <row r="43" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M42" s="5"/>
+    </row>
+    <row r="43" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="17">
         <v>1042</v>
       </c>
@@ -2201,8 +2281,11 @@
         <v>30</v>
       </c>
       <c r="L43" s="5"/>
-    </row>
-    <row r="44" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M43" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17">
         <v>1043</v>
       </c>
@@ -2229,8 +2312,9 @@
         <v>30</v>
       </c>
       <c r="L44" s="5"/>
-    </row>
-    <row r="45" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M44" s="5"/>
+    </row>
+    <row r="45" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="17">
         <v>1044</v>
       </c>
@@ -2255,8 +2339,9 @@
         <v>30</v>
       </c>
       <c r="L45" s="5"/>
-    </row>
-    <row r="46" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M45" s="5"/>
+    </row>
+    <row r="46" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="17">
         <v>1045</v>
       </c>
@@ -2281,8 +2366,9 @@
         <v>30</v>
       </c>
       <c r="L46" s="5"/>
-    </row>
-    <row r="47" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M46" s="5"/>
+    </row>
+    <row r="47" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="17">
         <v>1046</v>
       </c>
@@ -2317,8 +2403,11 @@
         <v>30</v>
       </c>
       <c r="L47" s="5"/>
-    </row>
-    <row r="48" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M47" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="17">
         <v>1047</v>
       </c>
@@ -2353,8 +2442,11 @@
         <v>30</v>
       </c>
       <c r="L48" s="5"/>
-    </row>
-    <row r="49" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M48" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="17">
         <v>1048</v>
       </c>
@@ -2387,8 +2479,9 @@
         <v>30</v>
       </c>
       <c r="L49" s="5"/>
-    </row>
-    <row r="50" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M49" s="5"/>
+    </row>
+    <row r="50" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="17">
         <v>1049</v>
       </c>
@@ -2423,8 +2516,11 @@
         <v>30</v>
       </c>
       <c r="L50" s="5"/>
-    </row>
-    <row r="51" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M50" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="17">
         <v>1050</v>
       </c>
@@ -2453,8 +2549,9 @@
       <c r="L51" s="5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M51" s="5"/>
+    </row>
+    <row r="52" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="17">
         <v>1051</v>
       </c>
@@ -2489,8 +2586,9 @@
       <c r="L52" s="5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M52" s="5"/>
+    </row>
+    <row r="53" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="17">
         <v>1052</v>
       </c>
@@ -2517,8 +2615,9 @@
         <v>30</v>
       </c>
       <c r="L53" s="5"/>
-    </row>
-    <row r="54" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M53" s="5"/>
+    </row>
+    <row r="54" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="17">
         <v>1053</v>
       </c>
@@ -2553,8 +2652,11 @@
         <v>30</v>
       </c>
       <c r="L54" s="5"/>
-    </row>
-    <row r="55" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M54" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="17">
         <v>1054</v>
       </c>
@@ -2579,8 +2681,9 @@
         <v>30</v>
       </c>
       <c r="L55" s="5"/>
-    </row>
-    <row r="56" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M55" s="5"/>
+    </row>
+    <row r="56" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="17">
         <v>1055</v>
       </c>
@@ -2615,8 +2718,11 @@
         <v>30</v>
       </c>
       <c r="L56" s="5"/>
-    </row>
-    <row r="57" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M56" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="17">
         <v>1056</v>
       </c>
@@ -2647,8 +2753,9 @@
         <v>30</v>
       </c>
       <c r="L57" s="5"/>
-    </row>
-    <row r="58" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M57" s="5"/>
+    </row>
+    <row r="58" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="17">
         <v>1057</v>
       </c>
@@ -2681,8 +2788,9 @@
       <c r="L58" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M58" s="5"/>
+    </row>
+    <row r="59" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="17">
         <v>1058</v>
       </c>
@@ -2717,8 +2825,11 @@
       <c r="L59" s="5" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M59" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="17">
         <v>1059</v>
       </c>
@@ -2743,8 +2854,9 @@
         <v>30</v>
       </c>
       <c r="L60" s="5"/>
-    </row>
-    <row r="61" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M60" s="5"/>
+    </row>
+    <row r="61" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="17">
         <v>1060</v>
       </c>
@@ -2779,8 +2891,11 @@
         <v>30</v>
       </c>
       <c r="L61" s="5"/>
-    </row>
-    <row r="62" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M61" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="17">
         <v>1061</v>
       </c>
@@ -2811,8 +2926,9 @@
         <v>30</v>
       </c>
       <c r="L62" s="5"/>
-    </row>
-    <row r="63" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M62" s="5"/>
+    </row>
+    <row r="63" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="17">
         <v>1062</v>
       </c>
@@ -2841,8 +2957,9 @@
       <c r="L63" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M63" s="5"/>
+    </row>
+    <row r="64" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="17">
         <v>1063</v>
       </c>
@@ -2867,8 +2984,9 @@
         <v>30</v>
       </c>
       <c r="L64" s="5"/>
-    </row>
-    <row r="65" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M64" s="5"/>
+    </row>
+    <row r="65" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="17">
         <v>1064</v>
       </c>
@@ -2899,8 +3017,11 @@
         <v>30</v>
       </c>
       <c r="L65" s="5"/>
-    </row>
-    <row r="66" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M65" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="17">
         <v>1065</v>
       </c>
@@ -2931,8 +3052,11 @@
         <v>30</v>
       </c>
       <c r="L66" s="5"/>
-    </row>
-    <row r="67" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M66" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="17">
         <v>1066</v>
       </c>
@@ -2959,8 +3083,9 @@
         <v>30</v>
       </c>
       <c r="L67" s="5"/>
-    </row>
-    <row r="68" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M67" s="5"/>
+    </row>
+    <row r="68" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="17">
         <v>1067</v>
       </c>
@@ -2987,8 +3112,9 @@
         <v>30</v>
       </c>
       <c r="L68" s="5"/>
-    </row>
-    <row r="69" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M68" s="5"/>
+    </row>
+    <row r="69" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="17">
         <v>1068</v>
       </c>
@@ -3015,8 +3141,9 @@
         <v>30</v>
       </c>
       <c r="L69" s="5"/>
-    </row>
-    <row r="70" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M69" s="5"/>
+    </row>
+    <row r="70" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="17">
         <v>1069</v>
       </c>
@@ -3039,8 +3166,9 @@
         <v>33</v>
       </c>
       <c r="L70" s="5"/>
-    </row>
-    <row r="71" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M70" s="5"/>
+    </row>
+    <row r="71" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="17">
         <v>1070</v>
       </c>
@@ -3063,8 +3191,9 @@
         <v>33</v>
       </c>
       <c r="L71" s="5"/>
-    </row>
-    <row r="72" spans="1:12" s="4" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M71" s="5"/>
+    </row>
+    <row r="72" spans="1:13" s="4" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="18">
         <v>1071</v>
       </c>
@@ -3095,8 +3224,9 @@
         <v>30</v>
       </c>
       <c r="L72" s="7"/>
-    </row>
-    <row r="73" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M72" s="7"/>
+    </row>
+    <row r="73" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="19">
         <v>1072</v>
       </c>
@@ -3127,8 +3257,9 @@
         <v>30</v>
       </c>
       <c r="L73" s="8"/>
-    </row>
-    <row r="74" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M73" s="8"/>
+    </row>
+    <row r="74" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="17">
         <v>1073</v>
       </c>
@@ -3155,8 +3286,9 @@
         <v>30</v>
       </c>
       <c r="L74" s="5"/>
-    </row>
-    <row r="75" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M74" s="5"/>
+    </row>
+    <row r="75" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="17">
         <v>1074</v>
       </c>
@@ -3187,8 +3319,9 @@
         <v>30</v>
       </c>
       <c r="L75" s="5"/>
-    </row>
-    <row r="76" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M75" s="5"/>
+    </row>
+    <row r="76" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="17">
         <v>1075</v>
       </c>
@@ -3223,8 +3356,11 @@
         <v>30</v>
       </c>
       <c r="L76" s="5"/>
-    </row>
-    <row r="77" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M76" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="17">
         <v>1076</v>
       </c>
@@ -3259,8 +3395,11 @@
         <v>30</v>
       </c>
       <c r="L77" s="5"/>
-    </row>
-    <row r="78" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M77" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="17">
         <v>1077</v>
       </c>
@@ -3295,8 +3434,11 @@
         <v>30</v>
       </c>
       <c r="L78" s="5"/>
-    </row>
-    <row r="79" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M78" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="17">
         <v>1078</v>
       </c>
@@ -3331,8 +3473,11 @@
         <v>30</v>
       </c>
       <c r="L79" s="5"/>
-    </row>
-    <row r="80" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M79" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="17">
         <v>1079</v>
       </c>
@@ -3357,8 +3502,9 @@
         <v>30</v>
       </c>
       <c r="L80" s="5"/>
-    </row>
-    <row r="81" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M80" s="5"/>
+    </row>
+    <row r="81" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="17">
         <v>1080</v>
       </c>
@@ -3381,8 +3527,9 @@
         <v>33</v>
       </c>
       <c r="L81" s="5"/>
-    </row>
-    <row r="82" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M81" s="5"/>
+    </row>
+    <row r="82" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="17">
         <v>1081</v>
       </c>
@@ -3417,8 +3564,11 @@
         <v>30</v>
       </c>
       <c r="L82" s="5"/>
-    </row>
-    <row r="83" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M82" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="17">
         <v>1082</v>
       </c>
@@ -3451,8 +3601,9 @@
       <c r="L83" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M83" s="5"/>
+    </row>
+    <row r="84" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="17">
         <v>1083</v>
       </c>
@@ -3479,8 +3630,9 @@
         <v>30</v>
       </c>
       <c r="L84" s="5"/>
-    </row>
-    <row r="85" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M84" s="5"/>
+    </row>
+    <row r="85" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="17">
         <v>1084</v>
       </c>
@@ -3515,8 +3667,11 @@
         <v>30</v>
       </c>
       <c r="L85" s="5"/>
-    </row>
-    <row r="86" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M85" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="17">
         <v>1085</v>
       </c>
@@ -3547,8 +3702,9 @@
         <v>30</v>
       </c>
       <c r="L86" s="5"/>
-    </row>
-    <row r="87" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M86" s="5"/>
+    </row>
+    <row r="87" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="17">
         <v>1086</v>
       </c>
@@ -3581,8 +3737,11 @@
         <v>30</v>
       </c>
       <c r="L87" s="5"/>
-    </row>
-    <row r="88" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M87" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="17">
         <v>1087</v>
       </c>
@@ -3617,8 +3776,11 @@
         <v>30</v>
       </c>
       <c r="L88" s="5"/>
-    </row>
-    <row r="89" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M88" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="17">
         <v>1088</v>
       </c>
@@ -3641,8 +3803,9 @@
         <v>33</v>
       </c>
       <c r="L89" s="5"/>
-    </row>
-    <row r="90" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M89" s="5"/>
+    </row>
+    <row r="90" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="17">
         <v>1089</v>
       </c>
@@ -3665,8 +3828,9 @@
         <v>33</v>
       </c>
       <c r="L90" s="5"/>
-    </row>
-    <row r="91" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M90" s="5"/>
+    </row>
+    <row r="91" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="17">
         <v>1090</v>
       </c>
@@ -3701,8 +3865,11 @@
         <v>30</v>
       </c>
       <c r="L91" s="5"/>
-    </row>
-    <row r="92" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M91" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="17">
         <v>1091</v>
       </c>
@@ -3725,8 +3892,9 @@
         <v>33</v>
       </c>
       <c r="L92" s="5"/>
-    </row>
-    <row r="93" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M92" s="5"/>
+    </row>
+    <row r="93" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="17">
         <v>1092</v>
       </c>
@@ -3757,8 +3925,9 @@
         <v>30</v>
       </c>
       <c r="L93" s="5"/>
-    </row>
-    <row r="94" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M93" s="5"/>
+    </row>
+    <row r="94" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="17">
         <v>1093</v>
       </c>
@@ -3781,8 +3950,9 @@
         <v>33</v>
       </c>
       <c r="L94" s="5"/>
-    </row>
-    <row r="95" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M94" s="5"/>
+    </row>
+    <row r="95" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="17">
         <v>1094</v>
       </c>
@@ -3805,8 +3975,9 @@
         <v>33</v>
       </c>
       <c r="L95" s="5"/>
-    </row>
-    <row r="96" spans="1:12" s="4" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M95" s="5"/>
+    </row>
+    <row r="96" spans="1:13" s="4" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="18">
         <v>1095</v>
       </c>
@@ -3829,8 +4000,9 @@
         <v>33</v>
       </c>
       <c r="L96" s="7"/>
-    </row>
-    <row r="97" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M96" s="7"/>
+    </row>
+    <row r="97" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="19">
         <v>1096</v>
       </c>
@@ -3853,8 +4025,9 @@
         <v>33</v>
       </c>
       <c r="L97" s="8"/>
-    </row>
-    <row r="98" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M97" s="8"/>
+    </row>
+    <row r="98" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="17">
         <v>1097</v>
       </c>
@@ -3877,8 +4050,9 @@
         <v>33</v>
       </c>
       <c r="L98" s="5"/>
-    </row>
-    <row r="99" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M98" s="5"/>
+    </row>
+    <row r="99" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="17">
         <v>1098</v>
       </c>
@@ -3901,8 +4075,9 @@
         <v>33</v>
       </c>
       <c r="L99" s="5"/>
-    </row>
-    <row r="100" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M99" s="5"/>
+    </row>
+    <row r="100" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="17">
         <v>1099</v>
       </c>
@@ -3925,8 +4100,9 @@
         <v>33</v>
       </c>
       <c r="L100" s="5"/>
-    </row>
-    <row r="101" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M100" s="5"/>
+    </row>
+    <row r="101" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="17">
         <v>1100</v>
       </c>
@@ -3949,8 +4125,9 @@
         <v>33</v>
       </c>
       <c r="L101" s="5"/>
-    </row>
-    <row r="102" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M101" s="5"/>
+    </row>
+    <row r="102" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="17">
         <v>1101</v>
       </c>
@@ -3973,8 +4150,9 @@
         <v>33</v>
       </c>
       <c r="L102" s="5"/>
-    </row>
-    <row r="103" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M102" s="5"/>
+    </row>
+    <row r="103" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="17">
         <v>1102</v>
       </c>
@@ -3997,8 +4175,9 @@
         <v>33</v>
       </c>
       <c r="L103" s="5"/>
-    </row>
-    <row r="104" spans="1:12" s="4" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M103" s="5"/>
+    </row>
+    <row r="104" spans="1:13" s="4" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="18">
         <v>1103</v>
       </c>
@@ -4021,8 +4200,9 @@
         <v>33</v>
       </c>
       <c r="L104" s="7"/>
-    </row>
-    <row r="105" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M104" s="7"/>
+    </row>
+    <row r="105" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="19">
         <v>1104</v>
       </c>
@@ -4057,8 +4237,11 @@
         <v>30</v>
       </c>
       <c r="L105" s="8"/>
-    </row>
-    <row r="106" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M105" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="17">
         <v>1105</v>
       </c>
@@ -4093,8 +4276,11 @@
         <v>30</v>
       </c>
       <c r="L106" s="5"/>
-    </row>
-    <row r="107" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M106" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="17">
         <v>1106</v>
       </c>
@@ -4121,8 +4307,9 @@
         <v>30</v>
       </c>
       <c r="L107" s="5"/>
-    </row>
-    <row r="108" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M107" s="5"/>
+    </row>
+    <row r="108" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="17">
         <v>1107</v>
       </c>
@@ -4155,8 +4342,9 @@
         <v>30</v>
       </c>
       <c r="L108" s="5"/>
-    </row>
-    <row r="109" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M108" s="5"/>
+    </row>
+    <row r="109" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="17">
         <v>1108</v>
       </c>
@@ -4191,8 +4379,11 @@
         <v>30</v>
       </c>
       <c r="L109" s="5"/>
-    </row>
-    <row r="110" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M109" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="17">
         <v>1109</v>
       </c>
@@ -4227,8 +4418,11 @@
         <v>30</v>
       </c>
       <c r="L110" s="5"/>
-    </row>
-    <row r="111" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M110" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="17">
         <v>1110</v>
       </c>
@@ -4251,8 +4445,9 @@
         <v>33</v>
       </c>
       <c r="L111" s="5"/>
-    </row>
-    <row r="112" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M111" s="5"/>
+    </row>
+    <row r="112" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="17">
         <v>1111</v>
       </c>
@@ -4289,8 +4484,11 @@
       <c r="L112" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M112" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="17">
         <v>1112</v>
       </c>
@@ -4323,8 +4521,9 @@
         <v>30</v>
       </c>
       <c r="L113" s="5"/>
-    </row>
-    <row r="114" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M113" s="5"/>
+    </row>
+    <row r="114" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="17">
         <v>1113</v>
       </c>
@@ -4359,8 +4558,11 @@
         <v>30</v>
       </c>
       <c r="L114" s="5"/>
-    </row>
-    <row r="115" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M114" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="17">
         <v>1114</v>
       </c>
@@ -4395,8 +4597,11 @@
         <v>30</v>
       </c>
       <c r="L115" s="5"/>
-    </row>
-    <row r="116" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M115" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="17">
         <v>1115</v>
       </c>
@@ -4419,8 +4624,9 @@
         <v>33</v>
       </c>
       <c r="L116" s="5"/>
-    </row>
-    <row r="117" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M116" s="5"/>
+    </row>
+    <row r="117" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="17">
         <v>1116</v>
       </c>
@@ -4453,8 +4659,9 @@
         <v>30</v>
       </c>
       <c r="L117" s="5"/>
-    </row>
-    <row r="118" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M117" s="5"/>
+    </row>
+    <row r="118" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="17">
         <v>1117</v>
       </c>
@@ -4489,8 +4696,11 @@
         <v>30</v>
       </c>
       <c r="L118" s="5"/>
-    </row>
-    <row r="119" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M118" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="17">
         <v>1118</v>
       </c>
@@ -4523,8 +4733,9 @@
         <v>30</v>
       </c>
       <c r="L119" s="5"/>
-    </row>
-    <row r="120" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M119" s="5"/>
+    </row>
+    <row r="120" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="17">
         <v>1119</v>
       </c>
@@ -4555,8 +4766,9 @@
         <v>30</v>
       </c>
       <c r="L120" s="5"/>
-    </row>
-    <row r="121" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M120" s="5"/>
+    </row>
+    <row r="121" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="17">
         <v>1120</v>
       </c>
@@ -4589,8 +4801,9 @@
         <v>30</v>
       </c>
       <c r="L121" s="5"/>
-    </row>
-    <row r="122" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M121" s="5"/>
+    </row>
+    <row r="122" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="17">
         <v>1121</v>
       </c>
@@ -4625,8 +4838,11 @@
         <v>30</v>
       </c>
       <c r="L122" s="5"/>
-    </row>
-    <row r="123" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M122" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="17">
         <v>1122</v>
       </c>
@@ -4661,8 +4877,11 @@
         <v>30</v>
       </c>
       <c r="L123" s="5"/>
-    </row>
-    <row r="124" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M123" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="17">
         <v>1123</v>
       </c>
@@ -4697,8 +4916,11 @@
         <v>30</v>
       </c>
       <c r="L124" s="5"/>
-    </row>
-    <row r="125" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M124" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="17">
         <v>1124</v>
       </c>
@@ -4725,8 +4947,9 @@
         <v>30</v>
       </c>
       <c r="L125" s="5"/>
-    </row>
-    <row r="126" spans="1:12" s="4" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M125" s="5"/>
+    </row>
+    <row r="126" spans="1:13" s="4" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="18">
         <v>1125</v>
       </c>
@@ -4763,8 +4986,11 @@
       <c r="L126" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M126" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="19">
         <v>1126</v>
       </c>
@@ -4785,8 +5011,9 @@
       <c r="J127" s="8"/>
       <c r="K127" s="9"/>
       <c r="L127" s="8"/>
-    </row>
-    <row r="128" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M127" s="8"/>
+    </row>
+    <row r="128" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="17">
         <v>1127</v>
       </c>
@@ -4821,8 +5048,11 @@
         <v>30</v>
       </c>
       <c r="L128" s="5"/>
-    </row>
-    <row r="129" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M128" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="17">
         <v>1128</v>
       </c>
@@ -4857,8 +5087,11 @@
         <v>30</v>
       </c>
       <c r="L129" s="5"/>
-    </row>
-    <row r="130" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M129" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="17">
         <v>1129</v>
       </c>
@@ -4889,8 +5122,9 @@
         <v>30</v>
       </c>
       <c r="L130" s="5"/>
-    </row>
-    <row r="131" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M130" s="5"/>
+    </row>
+    <row r="131" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="17">
         <v>1130</v>
       </c>
@@ -4921,8 +5155,9 @@
         <v>30</v>
       </c>
       <c r="L131" s="5"/>
-    </row>
-    <row r="132" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M131" s="5"/>
+    </row>
+    <row r="132" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="17">
         <v>1131</v>
       </c>
@@ -4957,8 +5192,11 @@
         <v>30</v>
       </c>
       <c r="L132" s="5"/>
-    </row>
-    <row r="133" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M132" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="17">
         <v>1132</v>
       </c>
@@ -4983,8 +5221,9 @@
         <v>30</v>
       </c>
       <c r="L133" s="5"/>
-    </row>
-    <row r="134" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M133" s="5"/>
+    </row>
+    <row r="134" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="17">
         <v>1133</v>
       </c>
@@ -5015,8 +5254,9 @@
         <v>30</v>
       </c>
       <c r="L134" s="5"/>
-    </row>
-    <row r="135" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M134" s="5"/>
+    </row>
+    <row r="135" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="17">
         <v>1134</v>
       </c>
@@ -5051,8 +5291,11 @@
         <v>30</v>
       </c>
       <c r="L135" s="5"/>
-    </row>
-    <row r="136" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M135" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="17">
         <v>1135</v>
       </c>
@@ -5079,8 +5322,9 @@
         <v>30</v>
       </c>
       <c r="L136" s="5"/>
-    </row>
-    <row r="137" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M136" s="5"/>
+    </row>
+    <row r="137" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="17">
         <v>1136</v>
       </c>
@@ -5111,8 +5355,9 @@
         <v>30</v>
       </c>
       <c r="L137" s="5"/>
-    </row>
-    <row r="138" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M137" s="5"/>
+    </row>
+    <row r="138" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="17">
         <v>1137</v>
       </c>
@@ -5143,8 +5388,9 @@
         <v>30</v>
       </c>
       <c r="L138" s="5"/>
-    </row>
-    <row r="139" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M138" s="5"/>
+    </row>
+    <row r="139" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="17">
         <v>1138</v>
       </c>
@@ -5175,8 +5421,9 @@
         <v>30</v>
       </c>
       <c r="L139" s="5"/>
-    </row>
-    <row r="140" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M139" s="5"/>
+    </row>
+    <row r="140" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="17">
         <v>1139</v>
       </c>
@@ -5211,8 +5458,11 @@
         <v>30</v>
       </c>
       <c r="L140" s="5"/>
-    </row>
-    <row r="141" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M140" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="17">
         <v>1140</v>
       </c>
@@ -5247,8 +5497,11 @@
         <v>30</v>
       </c>
       <c r="L141" s="5"/>
-    </row>
-    <row r="142" spans="1:12" s="4" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M141" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" s="4" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="18">
         <v>1141</v>
       </c>
@@ -5283,8 +5536,11 @@
         <v>30</v>
       </c>
       <c r="L142" s="7"/>
-    </row>
-    <row r="143" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M142" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="19">
         <v>1142</v>
       </c>
@@ -5319,8 +5575,11 @@
         <v>30</v>
       </c>
       <c r="L143" s="8"/>
-    </row>
-    <row r="144" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M143" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="17">
         <v>1143</v>
       </c>
@@ -5355,8 +5614,11 @@
         <v>30</v>
       </c>
       <c r="L144" s="5"/>
-    </row>
-    <row r="145" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M144" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="17">
         <v>1144</v>
       </c>
@@ -5391,8 +5653,11 @@
         <v>30</v>
       </c>
       <c r="L145" s="5"/>
-    </row>
-    <row r="146" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M145" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="17">
         <v>1145</v>
       </c>
@@ -5427,8 +5692,11 @@
         <v>30</v>
       </c>
       <c r="L146" s="5"/>
-    </row>
-    <row r="147" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M146" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="17">
         <v>1146</v>
       </c>
@@ -5463,8 +5731,11 @@
         <v>30</v>
       </c>
       <c r="L147" s="5"/>
-    </row>
-    <row r="148" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M147" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="17">
         <v>1147</v>
       </c>
@@ -5499,8 +5770,11 @@
         <v>30</v>
       </c>
       <c r="L148" s="5"/>
-    </row>
-    <row r="149" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M148" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="17">
         <v>1148</v>
       </c>
@@ -5531,8 +5805,9 @@
         <v>30</v>
       </c>
       <c r="L149" s="5"/>
-    </row>
-    <row r="150" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M149" s="5"/>
+    </row>
+    <row r="150" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="17">
         <v>1149</v>
       </c>
@@ -5563,8 +5838,9 @@
         <v>30</v>
       </c>
       <c r="L150" s="5"/>
-    </row>
-    <row r="151" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M150" s="5"/>
+    </row>
+    <row r="151" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="17">
         <v>1150</v>
       </c>
@@ -5591,8 +5867,9 @@
         <v>30</v>
       </c>
       <c r="L151" s="5"/>
-    </row>
-    <row r="152" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M151" s="5"/>
+    </row>
+    <row r="152" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="17">
         <v>1151</v>
       </c>
@@ -5615,8 +5892,9 @@
         <v>33</v>
       </c>
       <c r="L152" s="5"/>
-    </row>
-    <row r="153" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M152" s="5"/>
+    </row>
+    <row r="153" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="17">
         <v>1152</v>
       </c>
@@ -5639,8 +5917,9 @@
         <v>33</v>
       </c>
       <c r="L153" s="5"/>
-    </row>
-    <row r="154" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M153" s="5"/>
+    </row>
+    <row r="154" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="17">
         <v>1153</v>
       </c>
@@ -5663,8 +5942,9 @@
         <v>33</v>
       </c>
       <c r="L154" s="5"/>
-    </row>
-    <row r="155" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M154" s="5"/>
+    </row>
+    <row r="155" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="17">
         <v>1154</v>
       </c>
@@ -5687,8 +5967,9 @@
         <v>33</v>
       </c>
       <c r="L155" s="5"/>
-    </row>
-    <row r="156" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M155" s="5"/>
+    </row>
+    <row r="156" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="17">
         <v>1155</v>
       </c>
@@ -5711,8 +5992,9 @@
         <v>33</v>
       </c>
       <c r="L156" s="5"/>
-    </row>
-    <row r="157" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M156" s="5"/>
+    </row>
+    <row r="157" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="17">
         <v>1156</v>
       </c>
@@ -5735,8 +6017,9 @@
         <v>33</v>
       </c>
       <c r="L157" s="5"/>
-    </row>
-    <row r="158" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M157" s="5"/>
+    </row>
+    <row r="158" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="17">
         <v>1157</v>
       </c>
@@ -5759,8 +6042,9 @@
         <v>33</v>
       </c>
       <c r="L158" s="5"/>
-    </row>
-    <row r="159" spans="1:12" s="4" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M158" s="5"/>
+    </row>
+    <row r="159" spans="1:13" s="4" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A159" s="18">
         <v>1158</v>
       </c>
@@ -5783,8 +6067,9 @@
         <v>33</v>
       </c>
       <c r="L159" s="7"/>
-    </row>
-    <row r="160" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M159" s="7"/>
+    </row>
+    <row r="160" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="19">
         <v>1159</v>
       </c>
@@ -5819,8 +6104,11 @@
         <v>30</v>
       </c>
       <c r="L160" s="8"/>
-    </row>
-    <row r="161" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M160" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="17">
         <v>1160</v>
       </c>
@@ -5849,8 +6137,9 @@
       <c r="L161" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="162" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M161" s="5"/>
+    </row>
+    <row r="162" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="17">
         <v>1161</v>
       </c>
@@ -5885,8 +6174,11 @@
         <v>30</v>
       </c>
       <c r="L162" s="5"/>
-    </row>
-    <row r="163" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M162" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="17">
         <v>1162</v>
       </c>
@@ -5917,8 +6209,9 @@
         <v>30</v>
       </c>
       <c r="L163" s="5"/>
-    </row>
-    <row r="164" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M163" s="5"/>
+    </row>
+    <row r="164" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="17">
         <v>1163</v>
       </c>
@@ -5949,8 +6242,9 @@
         <v>30</v>
       </c>
       <c r="L164" s="5"/>
-    </row>
-    <row r="165" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M164" s="5"/>
+    </row>
+    <row r="165" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="17">
         <v>1164</v>
       </c>
@@ -5981,8 +6275,9 @@
         <v>30</v>
       </c>
       <c r="L165" s="5"/>
-    </row>
-    <row r="166" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M165" s="5"/>
+    </row>
+    <row r="166" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="17">
         <v>1165</v>
       </c>
@@ -6013,8 +6308,9 @@
         <v>30</v>
       </c>
       <c r="L166" s="5"/>
-    </row>
-    <row r="167" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M166" s="5"/>
+    </row>
+    <row r="167" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="17">
         <v>1166</v>
       </c>
@@ -6045,8 +6341,9 @@
         <v>30</v>
       </c>
       <c r="L167" s="5"/>
-    </row>
-    <row r="168" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M167" s="5"/>
+    </row>
+    <row r="168" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="17">
         <v>1167</v>
       </c>
@@ -6075,8 +6372,9 @@
       <c r="L168" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="169" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M168" s="5"/>
+    </row>
+    <row r="169" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="17">
         <v>1168</v>
       </c>
@@ -6109,8 +6407,11 @@
         <v>30</v>
       </c>
       <c r="L169" s="5"/>
-    </row>
-    <row r="170" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M169" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="17">
         <v>1169</v>
       </c>
@@ -6143,8 +6444,11 @@
         <v>30</v>
       </c>
       <c r="L170" s="5"/>
-    </row>
-    <row r="171" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M170" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="17">
         <v>1170</v>
       </c>
@@ -6175,8 +6479,9 @@
         <v>30</v>
       </c>
       <c r="L171" s="5"/>
-    </row>
-    <row r="172" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M171" s="5"/>
+    </row>
+    <row r="172" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="17">
         <v>1171</v>
       </c>
@@ -6201,8 +6506,9 @@
         <v>30</v>
       </c>
       <c r="L172" s="5"/>
-    </row>
-    <row r="173" spans="1:12" s="4" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M172" s="5"/>
+    </row>
+    <row r="173" spans="1:13" s="4" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A173" s="18">
         <v>1172</v>
       </c>
@@ -6233,8 +6539,9 @@
         <v>30</v>
       </c>
       <c r="L173" s="7"/>
-    </row>
-    <row r="174" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M173" s="7"/>
+    </row>
+    <row r="174" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="19">
         <v>1173</v>
       </c>
@@ -6261,8 +6568,9 @@
       <c r="L174" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="175" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M174" s="5"/>
+    </row>
+    <row r="175" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="17">
         <v>1174</v>
       </c>
@@ -6289,8 +6597,9 @@
       <c r="L175" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="176" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M175" s="5"/>
+    </row>
+    <row r="176" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="17">
         <v>1175</v>
       </c>
@@ -6315,8 +6624,9 @@
       <c r="L176" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="177" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M176" s="5"/>
+    </row>
+    <row r="177" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="17">
         <v>1176</v>
       </c>
@@ -6343,8 +6653,9 @@
       <c r="L177" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="178" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M177" s="5"/>
+    </row>
+    <row r="178" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="17">
         <v>1177</v>
       </c>
@@ -6369,8 +6680,9 @@
       <c r="L178" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="179" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M178" s="5"/>
+    </row>
+    <row r="179" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="17">
         <v>1178</v>
       </c>
@@ -6395,8 +6707,9 @@
       <c r="L179" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="180" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M179" s="5"/>
+    </row>
+    <row r="180" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="17">
         <v>1179</v>
       </c>
@@ -6421,8 +6734,9 @@
       <c r="L180" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="181" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M180" s="5"/>
+    </row>
+    <row r="181" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="17">
         <v>1180</v>
       </c>
@@ -6447,8 +6761,9 @@
       <c r="L181" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="182" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M181" s="5"/>
+    </row>
+    <row r="182" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="17">
         <v>1181</v>
       </c>
@@ -6475,8 +6790,9 @@
       <c r="L182" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="183" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M182" s="5"/>
+    </row>
+    <row r="183" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="17">
         <v>1182</v>
       </c>
@@ -6501,8 +6817,9 @@
       <c r="L183" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="184" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M183" s="5"/>
+    </row>
+    <row r="184" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="17">
         <v>1183</v>
       </c>
@@ -6527,8 +6844,9 @@
       <c r="L184" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="185" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M184" s="5"/>
+    </row>
+    <row r="185" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="17">
         <v>1184</v>
       </c>
@@ -6553,8 +6871,9 @@
       <c r="L185" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="186" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M185" s="5"/>
+    </row>
+    <row r="186" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="17">
         <v>1185</v>
       </c>
@@ -6581,8 +6900,9 @@
       <c r="L186" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="187" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M186" s="5"/>
+    </row>
+    <row r="187" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="17">
         <v>1186</v>
       </c>
@@ -6609,8 +6929,9 @@
       <c r="L187" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="188" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M187" s="5"/>
+    </row>
+    <row r="188" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="17">
         <v>1187</v>
       </c>
@@ -6635,8 +6956,9 @@
       <c r="L188" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="189" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M188" s="5"/>
+    </row>
+    <row r="189" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="17">
         <v>1188</v>
       </c>
@@ -6663,8 +6985,9 @@
       <c r="L189" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="190" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M189" s="5"/>
+    </row>
+    <row r="190" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="17">
         <v>1189</v>
       </c>
@@ -6689,8 +7012,9 @@
       <c r="L190" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="191" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M190" s="5"/>
+    </row>
+    <row r="191" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="17">
         <v>1190</v>
       </c>
@@ -6717,8 +7041,9 @@
       <c r="L191" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="192" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M191" s="5"/>
+    </row>
+    <row r="192" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="17">
         <v>1191</v>
       </c>
@@ -6745,8 +7070,9 @@
       <c r="L192" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="193" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M192" s="5"/>
+    </row>
+    <row r="193" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="17">
         <v>1192</v>
       </c>
@@ -6773,8 +7099,9 @@
       <c r="L193" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="194" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M193" s="5"/>
+    </row>
+    <row r="194" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="17">
         <v>1193</v>
       </c>
@@ -6801,8 +7128,9 @@
       <c r="L194" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="195" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M194" s="5"/>
+    </row>
+    <row r="195" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="17">
         <v>1194</v>
       </c>
@@ -6827,8 +7155,9 @@
       <c r="L195" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="196" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M195" s="5"/>
+    </row>
+    <row r="196" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="17">
         <v>1195</v>
       </c>
@@ -6853,8 +7182,9 @@
       <c r="L196" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="197" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M196" s="5"/>
+    </row>
+    <row r="197" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="17">
         <v>1196</v>
       </c>
@@ -6879,8 +7209,9 @@
       <c r="L197" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="198" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M197" s="5"/>
+    </row>
+    <row r="198" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="17">
         <v>1197</v>
       </c>
@@ -6907,8 +7238,9 @@
       <c r="L198" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="199" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M198" s="5"/>
+    </row>
+    <row r="199" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="17">
         <v>1198</v>
       </c>
@@ -6935,8 +7267,9 @@
       <c r="L199" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="200" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M199" s="5"/>
+    </row>
+    <row r="200" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="17">
         <v>1199</v>
       </c>
@@ -6961,8 +7294,9 @@
       <c r="L200" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="201" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M200" s="5"/>
+    </row>
+    <row r="201" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="17">
         <v>1200</v>
       </c>
@@ -6987,8 +7321,9 @@
       <c r="L201" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="202" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M201" s="5"/>
+    </row>
+    <row r="202" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="17">
         <v>1201</v>
       </c>
@@ -7013,8 +7348,9 @@
       <c r="L202" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="203" spans="1:12" s="4" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M202" s="5"/>
+    </row>
+    <row r="203" spans="1:13" s="4" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A203" s="18">
         <v>1202</v>
       </c>
@@ -7039,8 +7375,9 @@
       <c r="L203" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="204" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M203" s="7"/>
+    </row>
+    <row r="204" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="19">
         <v>1203</v>
       </c>
@@ -7067,8 +7404,11 @@
         <v>30</v>
       </c>
       <c r="L204" s="8"/>
-    </row>
-    <row r="205" spans="1:12" s="4" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M204" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" s="4" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A205" s="18">
         <v>1204</v>
       </c>
@@ -7095,8 +7435,9 @@
         <v>30</v>
       </c>
       <c r="L205" s="7"/>
-    </row>
-    <row r="206" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M205" s="7"/>
+    </row>
+    <row r="206" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="19">
         <v>1205</v>
       </c>
@@ -7123,8 +7464,9 @@
         <v>30</v>
       </c>
       <c r="L206" s="8"/>
-    </row>
-    <row r="207" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M206" s="8"/>
+    </row>
+    <row r="207" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="17">
         <v>1206</v>
       </c>
@@ -7159,8 +7501,11 @@
         <v>30</v>
       </c>
       <c r="L207" s="5"/>
-    </row>
-    <row r="208" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M207" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="17">
         <v>1207</v>
       </c>
@@ -7187,8 +7532,9 @@
         <v>30</v>
       </c>
       <c r="L208" s="5"/>
-    </row>
-    <row r="209" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M208" s="5"/>
+    </row>
+    <row r="209" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="17">
         <v>1208</v>
       </c>
@@ -7223,8 +7569,11 @@
         <v>30</v>
       </c>
       <c r="L209" s="5"/>
-    </row>
-    <row r="210" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M209" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="17">
         <v>1209</v>
       </c>
@@ -7255,8 +7604,9 @@
         <v>30</v>
       </c>
       <c r="L210" s="5"/>
-    </row>
-    <row r="211" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M210" s="5"/>
+    </row>
+    <row r="211" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="17">
         <v>1210</v>
       </c>
@@ -7291,8 +7641,11 @@
         <v>30</v>
       </c>
       <c r="L211" s="5"/>
-    </row>
-    <row r="212" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M211" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="17">
         <v>1211</v>
       </c>
@@ -7327,8 +7680,11 @@
         <v>30</v>
       </c>
       <c r="L212" s="5"/>
-    </row>
-    <row r="213" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M212" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="17">
         <v>1212</v>
       </c>
@@ -7363,8 +7719,11 @@
         <v>30</v>
       </c>
       <c r="L213" s="5"/>
-    </row>
-    <row r="214" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M213" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="17">
         <v>1213</v>
       </c>
@@ -7395,8 +7754,9 @@
         <v>30</v>
       </c>
       <c r="L214" s="5"/>
-    </row>
-    <row r="215" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M214" s="5"/>
+    </row>
+    <row r="215" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="17">
         <v>1214</v>
       </c>
@@ -7431,8 +7791,11 @@
         <v>30</v>
       </c>
       <c r="L215" s="5"/>
-    </row>
-    <row r="216" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M215" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="17">
         <v>1215</v>
       </c>
@@ -7467,8 +7830,11 @@
         <v>30</v>
       </c>
       <c r="L216" s="5"/>
-    </row>
-    <row r="217" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M216" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="17">
         <v>1216</v>
       </c>
@@ -7495,8 +7861,9 @@
         <v>30</v>
       </c>
       <c r="L217" s="5"/>
-    </row>
-    <row r="218" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M217" s="5"/>
+    </row>
+    <row r="218" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="17">
         <v>1217</v>
       </c>
@@ -7517,8 +7884,9 @@
       <c r="J218" s="5"/>
       <c r="K218" s="5"/>
       <c r="L218" s="5"/>
-    </row>
-    <row r="219" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M218" s="5"/>
+    </row>
+    <row r="219" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="17">
         <v>1218</v>
       </c>
@@ -7553,8 +7921,11 @@
         <v>30</v>
       </c>
       <c r="L219" s="5"/>
-    </row>
-    <row r="220" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M219" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="17">
         <v>1219</v>
       </c>
@@ -7589,8 +7960,11 @@
         <v>30</v>
       </c>
       <c r="L220" s="5"/>
-    </row>
-    <row r="221" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M220" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="17">
         <v>1220</v>
       </c>
@@ -7617,8 +7991,9 @@
         <v>30</v>
       </c>
       <c r="L221" s="5"/>
-    </row>
-    <row r="222" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M221" s="5"/>
+    </row>
+    <row r="222" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="17">
         <v>1221</v>
       </c>
@@ -7645,8 +8020,9 @@
         <v>30</v>
       </c>
       <c r="L222" s="5"/>
-    </row>
-    <row r="223" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M222" s="5"/>
+    </row>
+    <row r="223" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="17">
         <v>1222</v>
       </c>
@@ -7673,8 +8049,9 @@
         <v>30</v>
       </c>
       <c r="L223" s="5"/>
-    </row>
-    <row r="224" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M223" s="5"/>
+    </row>
+    <row r="224" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="17">
         <v>1223</v>
       </c>
@@ -7707,8 +8084,11 @@
       <c r="L224" s="5" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="225" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M224" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="17">
         <v>1224</v>
       </c>
@@ -7735,8 +8115,9 @@
         <v>30</v>
       </c>
       <c r="L225" s="5"/>
-    </row>
-    <row r="226" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M225" s="5"/>
+    </row>
+    <row r="226" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="17">
         <v>1225</v>
       </c>
@@ -7771,8 +8152,11 @@
         <v>30</v>
       </c>
       <c r="L226" s="5"/>
-    </row>
-    <row r="227" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M226" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="17">
         <v>1226</v>
       </c>
@@ -7799,8 +8183,9 @@
         <v>30</v>
       </c>
       <c r="L227" s="5"/>
-    </row>
-    <row r="228" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M227" s="5"/>
+    </row>
+    <row r="228" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="17">
         <v>1227</v>
       </c>
@@ -7835,8 +8220,11 @@
         <v>30</v>
       </c>
       <c r="L228" s="5"/>
-    </row>
-    <row r="229" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M228" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="17">
         <v>1228</v>
       </c>
@@ -7867,8 +8255,9 @@
         <v>30</v>
       </c>
       <c r="L229" s="5"/>
-    </row>
-    <row r="230" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M229" s="5"/>
+    </row>
+    <row r="230" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="17">
         <v>1229</v>
       </c>
@@ -7895,8 +8284,9 @@
         <v>30</v>
       </c>
       <c r="L230" s="5"/>
-    </row>
-    <row r="231" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M230" s="5"/>
+    </row>
+    <row r="231" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="17">
         <v>1230</v>
       </c>
@@ -7919,8 +8309,9 @@
         <v>33</v>
       </c>
       <c r="L231" s="5"/>
-    </row>
-    <row r="232" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M231" s="5"/>
+    </row>
+    <row r="232" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="17">
         <v>1231</v>
       </c>
@@ -7955,8 +8346,11 @@
         <v>30</v>
       </c>
       <c r="L232" s="5"/>
-    </row>
-    <row r="233" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M232" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="17">
         <v>1232</v>
       </c>
@@ -7983,8 +8377,9 @@
         <v>30</v>
       </c>
       <c r="L233" s="5"/>
-    </row>
-    <row r="234" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M233" s="5"/>
+    </row>
+    <row r="234" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="17">
         <v>1233</v>
       </c>
@@ -8019,8 +8414,11 @@
         <v>30</v>
       </c>
       <c r="L234" s="5"/>
-    </row>
-    <row r="235" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M234" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="17">
         <v>1234</v>
       </c>
@@ -8055,8 +8453,11 @@
         <v>30</v>
       </c>
       <c r="L235" s="5"/>
-    </row>
-    <row r="236" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M235" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="17">
         <v>1235</v>
       </c>
@@ -8091,8 +8492,11 @@
         <v>30</v>
       </c>
       <c r="L236" s="5"/>
-    </row>
-    <row r="237" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M236" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="17">
         <v>1236</v>
       </c>
@@ -8129,8 +8533,11 @@
       <c r="L237" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="238" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M237" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="17">
         <v>1237</v>
       </c>
@@ -8163,8 +8570,11 @@
       <c r="L238" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="239" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M238" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="17">
         <v>1238</v>
       </c>
@@ -8191,8 +8601,9 @@
         <v>30</v>
       </c>
       <c r="L239" s="5"/>
-    </row>
-    <row r="240" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M239" s="5"/>
+    </row>
+    <row r="240" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="17">
         <v>1239</v>
       </c>
@@ -8215,6 +8626,7 @@
         <v>33</v>
       </c>
       <c r="L240" s="5"/>
+      <c r="M240" s="5"/>
     </row>
     <row r="241" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="17">
@@ -8251,6 +8663,9 @@
         <v>30</v>
       </c>
       <c r="L241" s="5"/>
+      <c r="M241" s="5" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="242" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="17">
@@ -8279,6 +8694,7 @@
         <v>30</v>
       </c>
       <c r="L242" s="5"/>
+      <c r="M242" s="5"/>
     </row>
     <row r="243" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="17">
@@ -8307,6 +8723,7 @@
         <v>30</v>
       </c>
       <c r="L243" s="5"/>
+      <c r="M243" s="5"/>
     </row>
     <row r="244" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="17">
@@ -8335,6 +8752,7 @@
         <v>30</v>
       </c>
       <c r="L244" s="5"/>
+      <c r="M244" s="5"/>
     </row>
     <row r="245" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="17">
@@ -8371,7 +8789,9 @@
         <v>30</v>
       </c>
       <c r="L245" s="5"/>
-      <c r="M245" s="13"/>
+      <c r="M245" s="5" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="246" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="17">
@@ -8400,6 +8820,7 @@
         <v>30</v>
       </c>
       <c r="L246" s="5"/>
+      <c r="M246" s="5"/>
     </row>
     <row r="247" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="17">
@@ -8422,6 +8843,7 @@
       <c r="J247" s="5"/>
       <c r="K247" s="5"/>
       <c r="L247" s="5"/>
+      <c r="M247" s="5"/>
     </row>
     <row r="248" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="17">
@@ -8444,6 +8866,7 @@
       <c r="J248" s="5"/>
       <c r="K248" s="5"/>
       <c r="L248" s="5"/>
+      <c r="M248" s="5"/>
     </row>
     <row r="249" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="17">
@@ -8466,6 +8889,7 @@
       <c r="J249" s="5"/>
       <c r="K249" s="5"/>
       <c r="L249" s="5"/>
+      <c r="M249" s="5"/>
     </row>
     <row r="250" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="17">
@@ -8502,6 +8926,9 @@
         <v>30</v>
       </c>
       <c r="L250" s="5"/>
+      <c r="M250" s="5" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="251" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="17">
@@ -8530,6 +8957,7 @@
         <v>30</v>
       </c>
       <c r="L251" s="5"/>
+      <c r="M251" s="5"/>
     </row>
     <row r="252" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="17">
@@ -8558,6 +8986,7 @@
         <v>30</v>
       </c>
       <c r="L252" s="5"/>
+      <c r="M252" s="5"/>
     </row>
     <row r="253" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="17">
@@ -8596,6 +9025,9 @@
       <c r="L253" s="5" t="s">
         <v>53</v>
       </c>
+      <c r="M253" s="5" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="254" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="17">
@@ -8624,6 +9056,7 @@
         <v>30</v>
       </c>
       <c r="L254" s="5"/>
+      <c r="M254" s="5"/>
     </row>
     <row r="255" spans="1:13" s="4" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A255" s="18">
@@ -8652,6 +9085,7 @@
         <v>30</v>
       </c>
       <c r="L255" s="7"/>
+      <c r="M255" s="7"/>
     </row>
     <row r="256" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="19">
@@ -8688,8 +9122,11 @@
         <v>30</v>
       </c>
       <c r="L256" s="8"/>
-    </row>
-    <row r="257" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M256" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="17">
         <v>1256</v>
       </c>
@@ -8724,8 +9161,11 @@
         <v>30</v>
       </c>
       <c r="L257" s="5"/>
-    </row>
-    <row r="258" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M257" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="17">
         <v>1257</v>
       </c>
@@ -8756,8 +9196,9 @@
         <v>30</v>
       </c>
       <c r="L258" s="5"/>
-    </row>
-    <row r="259" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M258" s="5"/>
+    </row>
+    <row r="259" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="17">
         <v>1258</v>
       </c>
@@ -8784,8 +9225,9 @@
         <v>30</v>
       </c>
       <c r="L259" s="5"/>
-    </row>
-    <row r="260" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M259" s="5"/>
+    </row>
+    <row r="260" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="17">
         <v>1259</v>
       </c>
@@ -8816,8 +9258,9 @@
         <v>30</v>
       </c>
       <c r="L260" s="5"/>
-    </row>
-    <row r="261" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M260" s="5"/>
+    </row>
+    <row r="261" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="17">
         <v>1260</v>
       </c>
@@ -8854,8 +9297,11 @@
       <c r="L261" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="262" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M261" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="17">
         <v>1261</v>
       </c>
@@ -8882,8 +9328,9 @@
         <v>30</v>
       </c>
       <c r="L262" s="5"/>
-    </row>
-    <row r="263" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M262" s="5"/>
+    </row>
+    <row r="263" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="17">
         <v>1262</v>
       </c>
@@ -8916,8 +9363,9 @@
         <v>30</v>
       </c>
       <c r="L263" s="5"/>
-    </row>
-    <row r="264" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M263" s="5"/>
+    </row>
+    <row r="264" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="17">
         <v>1263</v>
       </c>
@@ -8944,8 +9392,9 @@
         <v>30</v>
       </c>
       <c r="L264" s="5"/>
-    </row>
-    <row r="265" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M264" s="5"/>
+    </row>
+    <row r="265" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="17">
         <v>1264</v>
       </c>
@@ -8976,8 +9425,9 @@
       <c r="L265" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="266" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M265" s="5"/>
+    </row>
+    <row r="266" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="17">
         <v>1265</v>
       </c>
@@ -9008,8 +9458,9 @@
         <v>30</v>
       </c>
       <c r="L266" s="5"/>
-    </row>
-    <row r="267" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M266" s="5"/>
+    </row>
+    <row r="267" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="17">
         <v>1266</v>
       </c>
@@ -9036,8 +9487,9 @@
         <v>30</v>
       </c>
       <c r="L267" s="5"/>
-    </row>
-    <row r="268" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M267" s="5"/>
+    </row>
+    <row r="268" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="17">
         <v>1267</v>
       </c>
@@ -9064,8 +9516,9 @@
         <v>30</v>
       </c>
       <c r="L268" s="5"/>
-    </row>
-    <row r="269" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M268" s="5"/>
+    </row>
+    <row r="269" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="17">
         <v>1268</v>
       </c>
@@ -9100,8 +9553,11 @@
         <v>30</v>
       </c>
       <c r="L269" s="5"/>
-    </row>
-    <row r="270" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M269" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="17">
         <v>1269</v>
       </c>
@@ -9136,8 +9592,11 @@
         <v>30</v>
       </c>
       <c r="L270" s="5"/>
-    </row>
-    <row r="271" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M270" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="17">
         <v>1270</v>
       </c>
@@ -9166,8 +9625,9 @@
       <c r="L271" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="272" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M271" s="5"/>
+    </row>
+    <row r="272" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="17">
         <v>1271</v>
       </c>
@@ -9194,8 +9654,9 @@
         <v>30</v>
       </c>
       <c r="L272" s="5"/>
-    </row>
-    <row r="273" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M272" s="5"/>
+    </row>
+    <row r="273" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="17">
         <v>1272</v>
       </c>
@@ -9228,8 +9689,9 @@
       <c r="L273" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="274" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M273" s="5"/>
+    </row>
+    <row r="274" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="17">
         <v>1273</v>
       </c>
@@ -9264,8 +9726,11 @@
         <v>30</v>
       </c>
       <c r="L274" s="5"/>
-    </row>
-    <row r="275" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M274" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="17">
         <v>1274</v>
       </c>
@@ -9296,8 +9761,9 @@
         <v>30</v>
       </c>
       <c r="L275" s="5"/>
-    </row>
-    <row r="276" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M275" s="5"/>
+    </row>
+    <row r="276" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="17">
         <v>1275</v>
       </c>
@@ -9332,8 +9798,9 @@
       <c r="L276" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="277" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M276" s="5"/>
+    </row>
+    <row r="277" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="17">
         <v>1276</v>
       </c>
@@ -9360,8 +9827,9 @@
         <v>30</v>
       </c>
       <c r="L277" s="5"/>
-    </row>
-    <row r="278" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M277" s="5"/>
+    </row>
+    <row r="278" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="17">
         <v>1277</v>
       </c>
@@ -9388,8 +9856,9 @@
         <v>30</v>
       </c>
       <c r="L278" s="5"/>
-    </row>
-    <row r="279" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M278" s="5"/>
+    </row>
+    <row r="279" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="17">
         <v>1278</v>
       </c>
@@ -9416,8 +9885,9 @@
         <v>30</v>
       </c>
       <c r="L279" s="5"/>
-    </row>
-    <row r="280" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M279" s="5"/>
+    </row>
+    <row r="280" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="17">
         <v>1279</v>
       </c>
@@ -9444,8 +9914,9 @@
         <v>30</v>
       </c>
       <c r="L280" s="5"/>
-    </row>
-    <row r="281" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M280" s="5"/>
+    </row>
+    <row r="281" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="17">
         <v>1280</v>
       </c>
@@ -9472,8 +9943,9 @@
         <v>30</v>
       </c>
       <c r="L281" s="5"/>
-    </row>
-    <row r="282" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M281" s="5"/>
+    </row>
+    <row r="282" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="17">
         <v>1281</v>
       </c>
@@ -9504,8 +9976,9 @@
         <v>30</v>
       </c>
       <c r="L282" s="5"/>
-    </row>
-    <row r="283" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M282" s="5"/>
+    </row>
+    <row r="283" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="17">
         <v>1282</v>
       </c>
@@ -9538,8 +10011,9 @@
       <c r="L283" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="284" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M283" s="5"/>
+    </row>
+    <row r="284" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="17">
         <v>1283</v>
       </c>
@@ -9574,8 +10048,11 @@
         <v>30</v>
       </c>
       <c r="L284" s="5"/>
-    </row>
-    <row r="285" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M284" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="17">
         <v>1284</v>
       </c>
@@ -9608,8 +10085,9 @@
       <c r="L285" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="286" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M285" s="5"/>
+    </row>
+    <row r="286" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="17">
         <v>1285</v>
       </c>
@@ -9644,8 +10122,11 @@
         <v>30</v>
       </c>
       <c r="L286" s="5"/>
-    </row>
-    <row r="287" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M286" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="17">
         <v>1286</v>
       </c>
@@ -9676,8 +10157,9 @@
         <v>30</v>
       </c>
       <c r="L287" s="5"/>
-    </row>
-    <row r="288" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M287" s="5"/>
+    </row>
+    <row r="288" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="17">
         <v>1287</v>
       </c>
@@ -9712,8 +10194,11 @@
         <v>30</v>
       </c>
       <c r="L288" s="5"/>
-    </row>
-    <row r="289" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M288" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="17">
         <v>1288</v>
       </c>
@@ -9748,8 +10233,11 @@
         <v>30</v>
       </c>
       <c r="L289" s="5"/>
-    </row>
-    <row r="290" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M289" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="17">
         <v>1289</v>
       </c>
@@ -9784,8 +10272,11 @@
         <v>30</v>
       </c>
       <c r="L290" s="5"/>
-    </row>
-    <row r="291" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M290" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="17">
         <v>1290</v>
       </c>
@@ -9816,8 +10307,9 @@
         <v>30</v>
       </c>
       <c r="L291" s="5"/>
-    </row>
-    <row r="292" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M291" s="5"/>
+    </row>
+    <row r="292" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="17">
         <v>1291</v>
       </c>
@@ -9852,8 +10344,11 @@
         <v>30</v>
       </c>
       <c r="L292" s="5"/>
-    </row>
-    <row r="293" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M292" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="17">
         <v>1292</v>
       </c>
@@ -9888,8 +10383,11 @@
         <v>30</v>
       </c>
       <c r="L293" s="5"/>
-    </row>
-    <row r="294" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M293" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="17">
         <v>1293</v>
       </c>
@@ -9924,8 +10422,11 @@
         <v>30</v>
       </c>
       <c r="L294" s="5"/>
-    </row>
-    <row r="295" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M294" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="17">
         <v>1294</v>
       </c>
@@ -9960,8 +10461,11 @@
         <v>30</v>
       </c>
       <c r="L295" s="5"/>
-    </row>
-    <row r="296" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M295" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="17">
         <v>1295</v>
       </c>
@@ -9988,8 +10492,9 @@
         <v>30</v>
       </c>
       <c r="L296" s="5"/>
-    </row>
-    <row r="297" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M296" s="5"/>
+    </row>
+    <row r="297" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="17">
         <v>1296</v>
       </c>
@@ -10020,8 +10525,9 @@
         <v>30</v>
       </c>
       <c r="L297" s="5"/>
-    </row>
-    <row r="298" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M297" s="5"/>
+    </row>
+    <row r="298" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="17">
         <v>1297</v>
       </c>
@@ -10046,8 +10552,9 @@
         <v>30</v>
       </c>
       <c r="L298" s="5"/>
-    </row>
-    <row r="299" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M298" s="5"/>
+    </row>
+    <row r="299" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="17">
         <v>1298</v>
       </c>
@@ -10068,8 +10575,9 @@
       <c r="J299" s="5"/>
       <c r="K299" s="5"/>
       <c r="L299" s="5"/>
-    </row>
-    <row r="300" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M299" s="5"/>
+    </row>
+    <row r="300" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="17">
         <v>1299</v>
       </c>
@@ -10096,8 +10604,9 @@
         <v>30</v>
       </c>
       <c r="L300" s="5"/>
-    </row>
-    <row r="301" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M300" s="5"/>
+    </row>
+    <row r="301" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="17">
         <v>1300</v>
       </c>
@@ -10132,8 +10641,11 @@
         <v>30</v>
       </c>
       <c r="L301" s="5"/>
-    </row>
-    <row r="302" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M301" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="17">
         <v>1301</v>
       </c>
@@ -10160,8 +10672,9 @@
         <v>30</v>
       </c>
       <c r="L302" s="5"/>
-    </row>
-    <row r="303" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M302" s="5"/>
+    </row>
+    <row r="303" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="17">
         <v>1302</v>
       </c>
@@ -10196,8 +10709,11 @@
         <v>30</v>
       </c>
       <c r="L303" s="5"/>
-    </row>
-    <row r="304" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M303" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="17">
         <v>1303</v>
       </c>
@@ -10228,8 +10744,9 @@
         <v>30</v>
       </c>
       <c r="L304" s="5"/>
-    </row>
-    <row r="305" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M304" s="5"/>
+    </row>
+    <row r="305" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="17">
         <v>1304</v>
       </c>
@@ -10256,8 +10773,9 @@
         <v>30</v>
       </c>
       <c r="L305" s="5"/>
-    </row>
-    <row r="306" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M305" s="5"/>
+    </row>
+    <row r="306" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="17">
         <v>1305</v>
       </c>
@@ -10292,8 +10810,11 @@
         <v>30</v>
       </c>
       <c r="L306" s="5"/>
-    </row>
-    <row r="307" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M306" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="17">
         <v>1306</v>
       </c>
@@ -10320,8 +10841,9 @@
         <v>30</v>
       </c>
       <c r="L307" s="5"/>
-    </row>
-    <row r="308" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M307" s="5"/>
+    </row>
+    <row r="308" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="17">
         <v>1307</v>
       </c>
@@ -10356,8 +10878,11 @@
         <v>30</v>
       </c>
       <c r="L308" s="5"/>
-    </row>
-    <row r="309" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M308" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="17">
         <v>1308</v>
       </c>
@@ -10388,8 +10913,9 @@
         <v>30</v>
       </c>
       <c r="L309" s="5"/>
-    </row>
-    <row r="310" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M309" s="5"/>
+    </row>
+    <row r="310" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="17">
         <v>1309</v>
       </c>
@@ -10416,8 +10942,9 @@
         <v>30</v>
       </c>
       <c r="L310" s="5"/>
-    </row>
-    <row r="311" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M310" s="5"/>
+    </row>
+    <row r="311" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="17">
         <v>1310</v>
       </c>
@@ -10450,8 +10977,11 @@
       <c r="L311" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="312" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M311" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="17">
         <v>1311</v>
       </c>
@@ -10484,8 +11014,9 @@
         <v>30</v>
       </c>
       <c r="L312" s="5"/>
-    </row>
-    <row r="313" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M312" s="5"/>
+    </row>
+    <row r="313" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="17">
         <v>1312</v>
       </c>
@@ -10520,8 +11051,11 @@
         <v>30</v>
       </c>
       <c r="L313" s="5"/>
-    </row>
-    <row r="314" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M313" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="17">
         <v>1313</v>
       </c>
@@ -10548,8 +11082,9 @@
         <v>30</v>
       </c>
       <c r="L314" s="5"/>
-    </row>
-    <row r="315" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M314" s="5"/>
+    </row>
+    <row r="315" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="17">
         <v>1314</v>
       </c>
@@ -10584,8 +11119,11 @@
         <v>30</v>
       </c>
       <c r="L315" s="5"/>
-    </row>
-    <row r="316" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M315" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="17">
         <v>1315</v>
       </c>
@@ -10620,8 +11158,9 @@
       <c r="L316" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="317" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M316" s="5"/>
+    </row>
+    <row r="317" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="17">
         <v>1316</v>
       </c>
@@ -10648,8 +11187,9 @@
         <v>30</v>
       </c>
       <c r="L317" s="5"/>
-    </row>
-    <row r="318" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M317" s="5"/>
+    </row>
+    <row r="318" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="17">
         <v>1317</v>
       </c>
@@ -10676,8 +11216,9 @@
         <v>30</v>
       </c>
       <c r="L318" s="5"/>
-    </row>
-    <row r="319" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M318" s="5"/>
+    </row>
+    <row r="319" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="17">
         <v>1318</v>
       </c>
@@ -10712,8 +11253,11 @@
         <v>30</v>
       </c>
       <c r="L319" s="5"/>
-    </row>
-    <row r="320" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M319" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="17">
         <v>1319</v>
       </c>
@@ -10748,8 +11292,11 @@
         <v>30</v>
       </c>
       <c r="L320" s="5"/>
-    </row>
-    <row r="321" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M320" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="17">
         <v>1320</v>
       </c>
@@ -10776,8 +11323,9 @@
         <v>30</v>
       </c>
       <c r="L321" s="5"/>
-    </row>
-    <row r="322" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M321" s="5"/>
+    </row>
+    <row r="322" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="17">
         <v>1321</v>
       </c>
@@ -10808,8 +11356,9 @@
       <c r="L322" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="323" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M322" s="5"/>
+    </row>
+    <row r="323" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="17">
         <v>1322</v>
       </c>
@@ -10844,8 +11393,11 @@
         <v>30</v>
       </c>
       <c r="L323" s="5"/>
-    </row>
-    <row r="324" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M323" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="17">
         <v>1323</v>
       </c>
@@ -10872,8 +11424,9 @@
         <v>30</v>
       </c>
       <c r="L324" s="5"/>
-    </row>
-    <row r="325" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M324" s="5"/>
+    </row>
+    <row r="325" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="17">
         <v>1324</v>
       </c>
@@ -10900,8 +11453,9 @@
         <v>30</v>
       </c>
       <c r="L325" s="5"/>
-    </row>
-    <row r="326" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M325" s="5"/>
+    </row>
+    <row r="326" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="17">
         <v>1325</v>
       </c>
@@ -10928,8 +11482,9 @@
         <v>30</v>
       </c>
       <c r="L326" s="5"/>
-    </row>
-    <row r="327" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M326" s="5"/>
+    </row>
+    <row r="327" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="17">
         <v>1326</v>
       </c>
@@ -10956,8 +11511,9 @@
         <v>30</v>
       </c>
       <c r="L327" s="5"/>
-    </row>
-    <row r="328" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M327" s="5"/>
+    </row>
+    <row r="328" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="17">
         <v>1327</v>
       </c>
@@ -10984,8 +11540,9 @@
         <v>30</v>
       </c>
       <c r="L328" s="5"/>
-    </row>
-    <row r="329" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M328" s="5"/>
+    </row>
+    <row r="329" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="17">
         <v>1328</v>
       </c>
@@ -11012,8 +11569,9 @@
         <v>30</v>
       </c>
       <c r="L329" s="5"/>
-    </row>
-    <row r="330" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M329" s="5"/>
+    </row>
+    <row r="330" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="17">
         <v>1329</v>
       </c>
@@ -11048,8 +11606,11 @@
         <v>30</v>
       </c>
       <c r="L330" s="5"/>
-    </row>
-    <row r="331" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M330" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="17">
         <v>1330</v>
       </c>
@@ -11076,8 +11637,9 @@
         <v>30</v>
       </c>
       <c r="L331" s="5"/>
-    </row>
-    <row r="332" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M331" s="5"/>
+    </row>
+    <row r="332" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="17">
         <v>1331</v>
       </c>
@@ -11104,8 +11666,9 @@
         <v>30</v>
       </c>
       <c r="L332" s="5"/>
-    </row>
-    <row r="333" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M332" s="5"/>
+    </row>
+    <row r="333" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="17">
         <v>1332</v>
       </c>
@@ -11136,8 +11699,9 @@
         <v>30</v>
       </c>
       <c r="L333" s="5"/>
-    </row>
-    <row r="334" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M333" s="5"/>
+    </row>
+    <row r="334" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="17">
         <v>1333</v>
       </c>
@@ -11164,8 +11728,9 @@
         <v>30</v>
       </c>
       <c r="L334" s="5"/>
-    </row>
-    <row r="335" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M334" s="5"/>
+    </row>
+    <row r="335" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="17">
         <v>1334</v>
       </c>
@@ -11192,8 +11757,9 @@
         <v>30</v>
       </c>
       <c r="L335" s="5"/>
-    </row>
-    <row r="336" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M335" s="5"/>
+    </row>
+    <row r="336" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="17">
         <v>1335</v>
       </c>
@@ -11228,8 +11794,11 @@
         <v>30</v>
       </c>
       <c r="L336" s="5"/>
-    </row>
-    <row r="337" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M336" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="337" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="17">
         <v>1336</v>
       </c>
@@ -11256,8 +11825,9 @@
         <v>30</v>
       </c>
       <c r="L337" s="5"/>
-    </row>
-    <row r="338" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M337" s="5"/>
+    </row>
+    <row r="338" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="17">
         <v>1337</v>
       </c>
@@ -11284,8 +11854,9 @@
         <v>30</v>
       </c>
       <c r="L338" s="5"/>
-    </row>
-    <row r="339" spans="1:12" s="4" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M338" s="5"/>
+    </row>
+    <row r="339" spans="1:13" s="4" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A339" s="18">
         <v>1338</v>
       </c>
@@ -11316,8 +11887,9 @@
         <v>30</v>
       </c>
       <c r="L339" s="7"/>
-    </row>
-    <row r="340" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M339" s="7"/>
+    </row>
+    <row r="340" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="19">
         <v>1339</v>
       </c>
@@ -11352,8 +11924,11 @@
         <v>30</v>
       </c>
       <c r="L340" s="8"/>
-    </row>
-    <row r="341" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M340" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="17">
         <v>1340</v>
       </c>
@@ -11380,8 +11955,9 @@
         <v>30</v>
       </c>
       <c r="L341" s="5"/>
-    </row>
-    <row r="342" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M341" s="5"/>
+    </row>
+    <row r="342" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="17">
         <v>1341</v>
       </c>
@@ -11402,8 +11978,9 @@
       <c r="J342" s="5"/>
       <c r="K342" s="5"/>
       <c r="L342" s="5"/>
-    </row>
-    <row r="343" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M342" s="5"/>
+    </row>
+    <row r="343" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="17">
         <v>1342</v>
       </c>
@@ -11434,8 +12011,9 @@
         <v>30</v>
       </c>
       <c r="L343" s="5"/>
-    </row>
-    <row r="344" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M343" s="5"/>
+    </row>
+    <row r="344" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="17">
         <v>1343</v>
       </c>
@@ -11462,8 +12040,9 @@
         <v>30</v>
       </c>
       <c r="L344" s="5"/>
-    </row>
-    <row r="345" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M344" s="5"/>
+    </row>
+    <row r="345" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="17">
         <v>1344</v>
       </c>
@@ -11498,8 +12077,11 @@
         <v>30</v>
       </c>
       <c r="L345" s="5"/>
-    </row>
-    <row r="346" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M345" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="346" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="17">
         <v>1345</v>
       </c>
@@ -11526,8 +12108,9 @@
         <v>30</v>
       </c>
       <c r="L346" s="5"/>
-    </row>
-    <row r="347" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M346" s="5"/>
+    </row>
+    <row r="347" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="17">
         <v>1346</v>
       </c>
@@ -11562,8 +12145,9 @@
       <c r="L347" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="348" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M347" s="5"/>
+    </row>
+    <row r="348" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="17">
         <v>1347</v>
       </c>
@@ -11592,8 +12176,9 @@
       <c r="L348" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="349" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M348" s="5"/>
+    </row>
+    <row r="349" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="17">
         <v>1348</v>
       </c>
@@ -11626,8 +12211,9 @@
         <v>30</v>
       </c>
       <c r="L349" s="5"/>
-    </row>
-    <row r="350" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M349" s="5"/>
+    </row>
+    <row r="350" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="17">
         <v>1349</v>
       </c>
@@ -11654,8 +12240,9 @@
         <v>30</v>
       </c>
       <c r="L350" s="5"/>
-    </row>
-    <row r="351" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M350" s="5"/>
+    </row>
+    <row r="351" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="17">
         <v>1350</v>
       </c>
@@ -11684,8 +12271,9 @@
       <c r="L351" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="352" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M351" s="5"/>
+    </row>
+    <row r="352" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="17">
         <v>1351</v>
       </c>
@@ -11712,8 +12300,9 @@
         <v>30</v>
       </c>
       <c r="L352" s="5"/>
-    </row>
-    <row r="353" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M352" s="5"/>
+    </row>
+    <row r="353" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="17">
         <v>1352</v>
       </c>
@@ -11748,8 +12337,11 @@
         <v>30</v>
       </c>
       <c r="L353" s="5"/>
-    </row>
-    <row r="354" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M353" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="354" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="17">
         <v>1353</v>
       </c>
@@ -11784,8 +12376,11 @@
         <v>30</v>
       </c>
       <c r="L354" s="5"/>
-    </row>
-    <row r="355" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M354" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="355" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="17">
         <v>1354</v>
       </c>
@@ -11816,8 +12411,9 @@
         <v>30</v>
       </c>
       <c r="L355" s="5"/>
-    </row>
-    <row r="356" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M355" s="5"/>
+    </row>
+    <row r="356" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="17">
         <v>1355</v>
       </c>
@@ -11840,8 +12436,9 @@
         <v>33</v>
       </c>
       <c r="L356" s="5"/>
-    </row>
-    <row r="357" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M356" s="5"/>
+    </row>
+    <row r="357" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="17">
         <v>1356</v>
       </c>
@@ -11876,8 +12473,11 @@
         <v>30</v>
       </c>
       <c r="L357" s="5"/>
-    </row>
-    <row r="358" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M357" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="358" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="17">
         <v>1357</v>
       </c>
@@ -11904,8 +12504,9 @@
         <v>30</v>
       </c>
       <c r="L358" s="5"/>
-    </row>
-    <row r="359" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M358" s="5"/>
+    </row>
+    <row r="359" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="17">
         <v>1358</v>
       </c>
@@ -11932,8 +12533,9 @@
         <v>30</v>
       </c>
       <c r="L359" s="5"/>
-    </row>
-    <row r="360" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M359" s="5"/>
+    </row>
+    <row r="360" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="17">
         <v>1359</v>
       </c>
@@ -11964,8 +12566,9 @@
         <v>30</v>
       </c>
       <c r="L360" s="5"/>
-    </row>
-    <row r="361" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M360" s="5"/>
+    </row>
+    <row r="361" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="17">
         <v>1360</v>
       </c>
@@ -12000,8 +12603,11 @@
         <v>30</v>
       </c>
       <c r="L361" s="5"/>
-    </row>
-    <row r="362" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M361" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="362" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="17">
         <v>1361</v>
       </c>
@@ -12028,8 +12634,9 @@
         <v>30</v>
       </c>
       <c r="L362" s="5"/>
-    </row>
-    <row r="363" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M362" s="5"/>
+    </row>
+    <row r="363" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="17">
         <v>1362</v>
       </c>
@@ -12060,8 +12667,9 @@
         <v>30</v>
       </c>
       <c r="L363" s="5"/>
-    </row>
-    <row r="364" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M363" s="5"/>
+    </row>
+    <row r="364" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="17">
         <v>1363</v>
       </c>
@@ -12088,8 +12696,9 @@
         <v>30</v>
       </c>
       <c r="L364" s="5"/>
-    </row>
-    <row r="365" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M364" s="5"/>
+    </row>
+    <row r="365" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="17">
         <v>1364</v>
       </c>
@@ -12118,8 +12727,9 @@
       <c r="L365" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="366" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M365" s="5"/>
+    </row>
+    <row r="366" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="17">
         <v>1365</v>
       </c>
@@ -12154,8 +12764,11 @@
         <v>30</v>
       </c>
       <c r="L366" s="5"/>
-    </row>
-    <row r="367" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M366" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="367" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="17">
         <v>1366</v>
       </c>
@@ -12186,8 +12799,9 @@
         <v>30</v>
       </c>
       <c r="L367" s="5"/>
-    </row>
-    <row r="368" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M367" s="5"/>
+    </row>
+    <row r="368" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="17">
         <v>1367</v>
       </c>
@@ -12214,8 +12828,9 @@
         <v>30</v>
       </c>
       <c r="L368" s="5"/>
-    </row>
-    <row r="369" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M368" s="5"/>
+    </row>
+    <row r="369" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="17">
         <v>1368</v>
       </c>
@@ -12246,8 +12861,9 @@
         <v>30</v>
       </c>
       <c r="L369" s="5"/>
-    </row>
-    <row r="370" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M369" s="5"/>
+    </row>
+    <row r="370" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="17">
         <v>1369</v>
       </c>
@@ -12274,8 +12890,9 @@
         <v>30</v>
       </c>
       <c r="L370" s="5"/>
-    </row>
-    <row r="371" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M370" s="5"/>
+    </row>
+    <row r="371" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="17">
         <v>1370</v>
       </c>
@@ -12306,8 +12923,9 @@
         <v>30</v>
       </c>
       <c r="L371" s="5"/>
-    </row>
-    <row r="372" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M371" s="5"/>
+    </row>
+    <row r="372" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="17">
         <v>1371</v>
       </c>
@@ -12330,8 +12948,9 @@
         <v>33</v>
       </c>
       <c r="L372" s="5"/>
-    </row>
-    <row r="373" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M372" s="5"/>
+    </row>
+    <row r="373" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="17">
         <v>1372</v>
       </c>
@@ -12358,8 +12977,9 @@
         <v>30</v>
       </c>
       <c r="L373" s="5"/>
-    </row>
-    <row r="374" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M373" s="5"/>
+    </row>
+    <row r="374" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="17">
         <v>1373</v>
       </c>
@@ -12390,8 +13010,9 @@
         <v>30</v>
       </c>
       <c r="L374" s="5"/>
-    </row>
-    <row r="375" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M374" s="5"/>
+    </row>
+    <row r="375" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="17">
         <v>1374</v>
       </c>
@@ -12414,8 +13035,9 @@
         <v>33</v>
       </c>
       <c r="L375" s="5"/>
-    </row>
-    <row r="376" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M375" s="5"/>
+    </row>
+    <row r="376" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="17">
         <v>1375</v>
       </c>
@@ -12444,8 +13066,9 @@
         <v>30</v>
       </c>
       <c r="L376" s="5"/>
-    </row>
-    <row r="377" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M376" s="5"/>
+    </row>
+    <row r="377" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="17">
         <v>1376</v>
       </c>
@@ -12476,8 +13099,9 @@
         <v>30</v>
       </c>
       <c r="L377" s="5"/>
-    </row>
-    <row r="378" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M377" s="5"/>
+    </row>
+    <row r="378" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="17">
         <v>1377</v>
       </c>
@@ -12504,8 +13128,9 @@
         <v>30</v>
       </c>
       <c r="L378" s="5"/>
-    </row>
-    <row r="379" spans="1:12" s="4" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M378" s="5"/>
+    </row>
+    <row r="379" spans="1:13" s="4" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A379" s="18">
         <v>1378</v>
       </c>
@@ -12536,8 +13161,9 @@
         <v>30</v>
       </c>
       <c r="L379" s="7"/>
-    </row>
-    <row r="380" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M379" s="7"/>
+    </row>
+    <row r="380" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="19">
         <v>1379</v>
       </c>
@@ -12560,8 +13186,9 @@
         <v>33</v>
       </c>
       <c r="L380" s="8"/>
-    </row>
-    <row r="381" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M380" s="8"/>
+    </row>
+    <row r="381" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="17">
         <v>1380</v>
       </c>
@@ -12590,8 +13217,9 @@
       <c r="L381" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="382" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M381" s="5"/>
+    </row>
+    <row r="382" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="17">
         <v>1381</v>
       </c>
@@ -12620,8 +13248,9 @@
       <c r="L382" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="383" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M382" s="5"/>
+    </row>
+    <row r="383" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="17">
         <v>1382</v>
       </c>
@@ -12656,8 +13285,11 @@
         <v>30</v>
       </c>
       <c r="L383" s="5"/>
-    </row>
-    <row r="384" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M383" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="384" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="17">
         <v>1383</v>
       </c>
@@ -12694,8 +13326,11 @@
       <c r="L384" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="385" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M384" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="385" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="17">
         <v>1384</v>
       </c>
@@ -12732,8 +13367,11 @@
       <c r="L385" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="386" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M385" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="386" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="17">
         <v>1385</v>
       </c>
@@ -12764,8 +13402,9 @@
         <v>30</v>
       </c>
       <c r="L386" s="5"/>
-    </row>
-    <row r="387" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M386" s="5"/>
+    </row>
+    <row r="387" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="17">
         <v>1386</v>
       </c>
@@ -12800,8 +13439,11 @@
         <v>30</v>
       </c>
       <c r="L387" s="5"/>
-    </row>
-    <row r="388" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M387" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="388" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="17">
         <v>1387</v>
       </c>
@@ -12832,8 +13474,9 @@
         <v>30</v>
       </c>
       <c r="L388" s="5"/>
-    </row>
-    <row r="389" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M388" s="5"/>
+    </row>
+    <row r="389" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="17">
         <v>1388</v>
       </c>
@@ -12860,8 +13503,9 @@
         <v>30</v>
       </c>
       <c r="L389" s="5"/>
-    </row>
-    <row r="390" spans="1:12" s="4" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M389" s="5"/>
+    </row>
+    <row r="390" spans="1:13" s="4" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A390" s="18">
         <v>1389</v>
       </c>
@@ -12882,8 +13526,9 @@
       <c r="J390" s="7"/>
       <c r="K390" s="7"/>
       <c r="L390" s="7"/>
-    </row>
-    <row r="391" spans="1:12" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M390" s="7"/>
+    </row>
+    <row r="391" spans="1:13" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="19">
         <v>1390</v>
       </c>
@@ -12914,8 +13559,9 @@
         <v>30</v>
       </c>
       <c r="L391" s="8"/>
-    </row>
-    <row r="392" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M391" s="8"/>
+    </row>
+    <row r="392" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="17">
         <v>1391</v>
       </c>
@@ -12942,8 +13588,9 @@
         <v>30</v>
       </c>
       <c r="L392" s="5"/>
-    </row>
-    <row r="393" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M392" s="5"/>
+    </row>
+    <row r="393" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="17">
         <v>1392</v>
       </c>
@@ -12970,8 +13617,9 @@
         <v>30</v>
       </c>
       <c r="L393" s="5"/>
-    </row>
-    <row r="394" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M393" s="5"/>
+    </row>
+    <row r="394" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="17">
         <v>1393</v>
       </c>
@@ -12994,8 +13642,9 @@
         <v>33</v>
       </c>
       <c r="L394" s="5"/>
-    </row>
-    <row r="395" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M394" s="5"/>
+    </row>
+    <row r="395" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="17">
         <v>1394</v>
       </c>
@@ -13022,8 +13671,9 @@
         <v>30</v>
       </c>
       <c r="L395" s="5"/>
-    </row>
-    <row r="396" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M395" s="5"/>
+    </row>
+    <row r="396" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="17">
         <v>1395</v>
       </c>
@@ -13058,8 +13708,11 @@
         <v>30</v>
       </c>
       <c r="L396" s="5"/>
-    </row>
-    <row r="397" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M396" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="397" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="17">
         <v>1396</v>
       </c>
@@ -13086,8 +13739,9 @@
         <v>30</v>
       </c>
       <c r="L397" s="5"/>
-    </row>
-    <row r="398" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M397" s="5"/>
+    </row>
+    <row r="398" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="17">
         <v>1397</v>
       </c>
@@ -13120,8 +13774,11 @@
         <v>30</v>
       </c>
       <c r="L398" s="5"/>
-    </row>
-    <row r="399" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M398" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="399" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="17">
         <v>1398</v>
       </c>
@@ -13156,8 +13813,11 @@
         <v>30</v>
       </c>
       <c r="L399" s="5"/>
-    </row>
-    <row r="400" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M399" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="400" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="17">
         <v>1399</v>
       </c>
@@ -13182,8 +13842,9 @@
         <v>30</v>
       </c>
       <c r="L400" s="5"/>
-    </row>
-    <row r="401" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M400" s="5"/>
+    </row>
+    <row r="401" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="17">
         <v>1400</v>
       </c>
@@ -13218,8 +13879,11 @@
         <v>30</v>
       </c>
       <c r="L401" s="5"/>
-    </row>
-    <row r="402" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M401" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="402" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="17">
         <v>1401</v>
       </c>
@@ -13254,8 +13918,11 @@
         <v>30</v>
       </c>
       <c r="L402" s="5"/>
-    </row>
-    <row r="403" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M402" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="403" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="17">
         <v>1402</v>
       </c>
@@ -13278,8 +13945,9 @@
         <v>33</v>
       </c>
       <c r="L403" s="5"/>
-    </row>
-    <row r="404" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M403" s="5"/>
+    </row>
+    <row r="404" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="17">
         <v>1403</v>
       </c>
@@ -13314,8 +13982,11 @@
         <v>30</v>
       </c>
       <c r="L404" s="5"/>
-    </row>
-    <row r="405" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M404" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="405" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="17">
         <v>1404</v>
       </c>
@@ -13346,8 +14017,9 @@
         <v>30</v>
       </c>
       <c r="L405" s="5"/>
-    </row>
-    <row r="406" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M405" s="5"/>
+    </row>
+    <row r="406" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="17">
         <v>1405</v>
       </c>
@@ -13382,8 +14054,11 @@
         <v>30</v>
       </c>
       <c r="L406" s="5"/>
-    </row>
-    <row r="407" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M406" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="407" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="17">
         <v>1406</v>
       </c>
@@ -13410,8 +14085,9 @@
         <v>30</v>
       </c>
       <c r="L407" s="5"/>
-    </row>
-    <row r="408" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M407" s="5"/>
+    </row>
+    <row r="408" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="17">
         <v>1407</v>
       </c>
@@ -13444,8 +14120,9 @@
       <c r="L408" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="409" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M408" s="5"/>
+    </row>
+    <row r="409" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="17">
         <v>1408</v>
       </c>
@@ -13476,8 +14153,9 @@
         <v>30</v>
       </c>
       <c r="L409" s="5"/>
-    </row>
-    <row r="410" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M409" s="5"/>
+    </row>
+    <row r="410" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="17">
         <v>1409</v>
       </c>
@@ -13504,8 +14182,9 @@
         <v>30</v>
       </c>
       <c r="L410" s="5"/>
-    </row>
-    <row r="411" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M410" s="5"/>
+    </row>
+    <row r="411" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="17">
         <v>1410</v>
       </c>
@@ -13532,8 +14211,9 @@
         <v>30</v>
       </c>
       <c r="L411" s="5"/>
-    </row>
-    <row r="412" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M411" s="5"/>
+    </row>
+    <row r="412" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="17">
         <v>1411</v>
       </c>
@@ -13568,8 +14248,11 @@
         <v>30</v>
       </c>
       <c r="L412" s="5"/>
-    </row>
-    <row r="413" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M412" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="413" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="17">
         <v>1412</v>
       </c>
@@ -13600,8 +14283,9 @@
         <v>30</v>
       </c>
       <c r="L413" s="5"/>
-    </row>
-    <row r="414" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M413" s="5"/>
+    </row>
+    <row r="414" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="17">
         <v>1413</v>
       </c>
@@ -13628,8 +14312,9 @@
         <v>30</v>
       </c>
       <c r="L414" s="5"/>
-    </row>
-    <row r="415" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M414" s="5"/>
+    </row>
+    <row r="415" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="17">
         <v>1414</v>
       </c>
@@ -13656,8 +14341,9 @@
         <v>30</v>
       </c>
       <c r="L415" s="5"/>
-    </row>
-    <row r="416" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M415" s="5"/>
+    </row>
+    <row r="416" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="17">
         <v>1415</v>
       </c>
@@ -13694,8 +14380,11 @@
       <c r="L416" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="417" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M416" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="417" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="17">
         <v>1416</v>
       </c>
@@ -13730,8 +14419,11 @@
         <v>30</v>
       </c>
       <c r="L417" s="5"/>
-    </row>
-    <row r="418" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M417" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="418" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="17">
         <v>1417</v>
       </c>
@@ -13758,8 +14450,9 @@
         <v>30</v>
       </c>
       <c r="L418" s="5"/>
-    </row>
-    <row r="419" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M418" s="5"/>
+    </row>
+    <row r="419" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="17">
         <v>1418</v>
       </c>
@@ -13782,8 +14475,9 @@
         <v>33</v>
       </c>
       <c r="L419" s="5"/>
-    </row>
-    <row r="420" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M419" s="5"/>
+    </row>
+    <row r="420" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="17">
         <v>1419</v>
       </c>
@@ -13814,8 +14508,9 @@
         <v>30</v>
       </c>
       <c r="L420" s="5"/>
-    </row>
-    <row r="421" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M420" s="5"/>
+    </row>
+    <row r="421" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="17">
         <v>1420</v>
       </c>
@@ -13838,8 +14533,9 @@
         <v>33</v>
       </c>
       <c r="L421" s="5"/>
-    </row>
-    <row r="422" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M421" s="5"/>
+    </row>
+    <row r="422" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="17">
         <v>1421</v>
       </c>
@@ -13876,8 +14572,11 @@
       <c r="L422" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="423" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M422" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="423" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="17">
         <v>1422</v>
       </c>
@@ -13899,8 +14598,9 @@
         <v>33</v>
       </c>
       <c r="L423" s="5"/>
-    </row>
-    <row r="424" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M423" s="5"/>
+    </row>
+    <row r="424" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="17">
         <v>1423</v>
       </c>
@@ -13927,8 +14627,9 @@
         <v>30</v>
       </c>
       <c r="L424" s="5"/>
-    </row>
-    <row r="425" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M424" s="5"/>
+    </row>
+    <row r="425" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="17">
         <v>1424</v>
       </c>
@@ -13959,8 +14660,9 @@
         <v>30</v>
       </c>
       <c r="L425" s="5"/>
-    </row>
-    <row r="426" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M425" s="5"/>
+    </row>
+    <row r="426" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="17">
         <v>1425</v>
       </c>
@@ -13995,8 +14697,11 @@
         <v>30</v>
       </c>
       <c r="L426" s="5"/>
-    </row>
-    <row r="427" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M426" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="427" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="17">
         <v>1426</v>
       </c>
@@ -14027,8 +14732,9 @@
         <v>30</v>
       </c>
       <c r="L427" s="5"/>
-    </row>
-    <row r="428" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M427" s="5"/>
+    </row>
+    <row r="428" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="17">
         <v>1427</v>
       </c>
@@ -14051,8 +14757,9 @@
         <v>33</v>
       </c>
       <c r="L428" s="5"/>
-    </row>
-    <row r="429" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M428" s="5"/>
+    </row>
+    <row r="429" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="17">
         <v>1428</v>
       </c>
@@ -14087,8 +14794,11 @@
         <v>30</v>
       </c>
       <c r="L429" s="5"/>
-    </row>
-    <row r="430" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M429" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="430" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="17">
         <v>1429</v>
       </c>
@@ -14121,8 +14831,9 @@
         <v>30</v>
       </c>
       <c r="L430" s="5"/>
-    </row>
-    <row r="431" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M430" s="5"/>
+    </row>
+    <row r="431" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="17">
         <v>1430</v>
       </c>
@@ -14155,8 +14866,9 @@
       <c r="L431" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="432" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M431" s="5"/>
+    </row>
+    <row r="432" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="17">
         <v>1431</v>
       </c>
@@ -14179,8 +14891,9 @@
         <v>33</v>
       </c>
       <c r="L432" s="5"/>
-    </row>
-    <row r="433" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M432" s="5"/>
+    </row>
+    <row r="433" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="17">
         <v>1432</v>
       </c>
@@ -14213,8 +14926,9 @@
       <c r="L433" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="434" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M433" s="5"/>
+    </row>
+    <row r="434" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="17">
         <v>1433</v>
       </c>
@@ -14249,8 +14963,11 @@
         <v>30</v>
       </c>
       <c r="L434" s="5"/>
-    </row>
-    <row r="435" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M434" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="435" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="17">
         <v>1434</v>
       </c>
@@ -14283,8 +15000,9 @@
       <c r="L435" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="436" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M435" s="5"/>
+    </row>
+    <row r="436" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="17">
         <v>1435</v>
       </c>
@@ -14315,8 +15033,9 @@
         <v>30</v>
       </c>
       <c r="L436" s="5"/>
-    </row>
-    <row r="437" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M436" s="5"/>
+    </row>
+    <row r="437" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="17">
         <v>1436</v>
       </c>
@@ -14345,8 +15064,9 @@
       <c r="L437" s="6" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="438" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M437" s="6"/>
+    </row>
+    <row r="438" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="17">
         <v>1437</v>
       </c>
@@ -14381,8 +15101,11 @@
         <v>30</v>
       </c>
       <c r="L438" s="5"/>
-    </row>
-    <row r="439" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M438" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="439" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="17">
         <v>1438</v>
       </c>
@@ -14413,8 +15136,9 @@
         <v>30</v>
       </c>
       <c r="L439" s="5"/>
-    </row>
-    <row r="440" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M439" s="5"/>
+    </row>
+    <row r="440" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="17">
         <v>1439</v>
       </c>
@@ -14445,8 +15169,11 @@
         <v>30</v>
       </c>
       <c r="L440" s="5"/>
-    </row>
-    <row r="441" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M440" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="441" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="17">
         <v>1440</v>
       </c>
@@ -14473,8 +15200,9 @@
         <v>30</v>
       </c>
       <c r="L441" s="5"/>
-    </row>
-    <row r="442" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M441" s="5"/>
+    </row>
+    <row r="442" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="17">
         <v>1441</v>
       </c>
@@ -14505,8 +15233,9 @@
         <v>30</v>
       </c>
       <c r="L442" s="5"/>
-    </row>
-    <row r="443" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M442" s="5"/>
+    </row>
+    <row r="443" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="17">
         <v>1442</v>
       </c>
@@ -14539,8 +15268,9 @@
       <c r="L443" s="6" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="444" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M443" s="6"/>
+    </row>
+    <row r="444" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="17">
         <v>1443</v>
       </c>
@@ -14567,8 +15297,11 @@
         <v>30</v>
       </c>
       <c r="L444" s="5"/>
-    </row>
-    <row r="445" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M444" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="445" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="17">
         <v>1444</v>
       </c>
@@ -14601,8 +15334,9 @@
       <c r="L445" s="6" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="446" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M445" s="6"/>
+    </row>
+    <row r="446" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="17">
         <v>1445</v>
       </c>
@@ -14635,8 +15369,9 @@
       <c r="L446" s="6" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="447" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M446" s="6"/>
+    </row>
+    <row r="447" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="17">
         <v>1446</v>
       </c>
@@ -14663,8 +15398,9 @@
         <v>30</v>
       </c>
       <c r="L447" s="5"/>
-    </row>
-    <row r="448" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M447" s="5"/>
+    </row>
+    <row r="448" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="17">
         <v>1447</v>
       </c>
@@ -14701,8 +15437,11 @@
       <c r="L448" s="6" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="449" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M448" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="449" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="17">
         <v>1448</v>
       </c>
@@ -14729,8 +15468,9 @@
         <v>30</v>
       </c>
       <c r="L449" s="5"/>
-    </row>
-    <row r="450" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M449" s="5"/>
+    </row>
+    <row r="450" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="17">
         <v>1449</v>
       </c>
@@ -14757,8 +15497,9 @@
       <c r="L450" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="451" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M450" s="5"/>
+    </row>
+    <row r="451" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="17">
         <v>1450</v>
       </c>
@@ -14781,8 +15522,9 @@
         <v>33</v>
       </c>
       <c r="L451" s="5"/>
-    </row>
-    <row r="452" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M451" s="5"/>
+    </row>
+    <row r="452" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="17">
         <v>1451</v>
       </c>
@@ -14813,8 +15555,9 @@
         <v>30</v>
       </c>
       <c r="L452" s="5"/>
-    </row>
-    <row r="453" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M452" s="5"/>
+    </row>
+    <row r="453" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="17">
         <v>1452</v>
       </c>
@@ -14841,8 +15584,9 @@
         <v>30</v>
       </c>
       <c r="L453" s="5"/>
-    </row>
-    <row r="454" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M453" s="5"/>
+    </row>
+    <row r="454" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="17">
         <v>1453</v>
       </c>
@@ -14869,8 +15613,9 @@
         <v>30</v>
       </c>
       <c r="L454" s="5"/>
-    </row>
-    <row r="455" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M454" s="5"/>
+    </row>
+    <row r="455" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="17">
         <v>1454</v>
       </c>
@@ -14897,8 +15642,9 @@
         <v>30</v>
       </c>
       <c r="L455" s="5"/>
-    </row>
-    <row r="456" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M455" s="5"/>
+    </row>
+    <row r="456" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="17">
         <v>1455</v>
       </c>
@@ -14925,8 +15671,9 @@
         <v>30</v>
       </c>
       <c r="L456" s="5"/>
-    </row>
-    <row r="457" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M456" s="5"/>
+    </row>
+    <row r="457" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="17">
         <v>1456</v>
       </c>
@@ -14949,8 +15696,9 @@
         <v>33</v>
       </c>
       <c r="L457" s="5"/>
-    </row>
-    <row r="458" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M457" s="5"/>
+    </row>
+    <row r="458" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="17">
         <v>1457</v>
       </c>
@@ -14985,8 +15733,11 @@
         <v>30</v>
       </c>
       <c r="L458" s="5"/>
-    </row>
-    <row r="459" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M458" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="459" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="17">
         <v>1458</v>
       </c>
@@ -15013,8 +15764,9 @@
         <v>30</v>
       </c>
       <c r="L459" s="5"/>
-    </row>
-    <row r="460" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M459" s="5"/>
+    </row>
+    <row r="460" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="17">
         <v>1459</v>
       </c>
@@ -15049,8 +15801,11 @@
         <v>30</v>
       </c>
       <c r="L460" s="5"/>
-    </row>
-    <row r="461" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M460" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="461" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="17">
         <v>1460</v>
       </c>
@@ -15073,8 +15828,9 @@
         <v>33</v>
       </c>
       <c r="L461" s="5"/>
-    </row>
-    <row r="462" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M461" s="5"/>
+    </row>
+    <row r="462" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="17">
         <v>1461</v>
       </c>
@@ -15111,8 +15867,11 @@
       <c r="L462" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="463" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M462" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="463" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="17">
         <v>1462</v>
       </c>
@@ -15135,8 +15894,9 @@
         <v>33</v>
       </c>
       <c r="L463" s="5"/>
-    </row>
-    <row r="464" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M463" s="5"/>
+    </row>
+    <row r="464" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="17">
         <v>1463</v>
       </c>
@@ -15159,8 +15919,9 @@
         <v>33</v>
       </c>
       <c r="L464" s="5"/>
-    </row>
-    <row r="465" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M464" s="5"/>
+    </row>
+    <row r="465" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="17">
         <v>1464</v>
       </c>
@@ -15187,8 +15948,9 @@
         <v>30</v>
       </c>
       <c r="L465" s="5"/>
-    </row>
-    <row r="466" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M465" s="5"/>
+    </row>
+    <row r="466" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="17">
         <v>1465</v>
       </c>
@@ -15211,8 +15973,9 @@
         <v>33</v>
       </c>
       <c r="L466" s="5"/>
-    </row>
-    <row r="467" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M466" s="5"/>
+    </row>
+    <row r="467" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="17">
         <v>1466</v>
       </c>
@@ -15239,8 +16002,9 @@
         <v>30</v>
       </c>
       <c r="L467" s="5"/>
-    </row>
-    <row r="468" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M467" s="5"/>
+    </row>
+    <row r="468" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="17">
         <v>1467</v>
       </c>
@@ -15263,8 +16027,9 @@
         <v>33</v>
       </c>
       <c r="L468" s="5"/>
-    </row>
-    <row r="469" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M468" s="5"/>
+    </row>
+    <row r="469" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="17">
         <v>1468</v>
       </c>
@@ -15299,8 +16064,11 @@
         <v>30</v>
       </c>
       <c r="L469" s="5"/>
-    </row>
-    <row r="470" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M469" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="470" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="17">
         <v>1469</v>
       </c>
@@ -15337,8 +16105,11 @@
       <c r="L470" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="471" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M470" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="471" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="17">
         <v>1470</v>
       </c>
@@ -15361,8 +16132,9 @@
         <v>33</v>
       </c>
       <c r="L471" s="5"/>
-    </row>
-    <row r="472" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M471" s="5"/>
+    </row>
+    <row r="472" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="17">
         <v>1471</v>
       </c>
@@ -15385,8 +16157,9 @@
         <v>33</v>
       </c>
       <c r="L472" s="5"/>
-    </row>
-    <row r="473" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M472" s="5"/>
+    </row>
+    <row r="473" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="17">
         <v>1472</v>
       </c>
@@ -15409,8 +16182,9 @@
         <v>33</v>
       </c>
       <c r="L473" s="5"/>
-    </row>
-    <row r="474" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M473" s="5"/>
+    </row>
+    <row r="474" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="17">
         <v>1473</v>
       </c>
@@ -15433,8 +16207,9 @@
         <v>33</v>
       </c>
       <c r="L474" s="5"/>
-    </row>
-    <row r="475" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M474" s="5"/>
+    </row>
+    <row r="475" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="17">
         <v>1474</v>
       </c>
@@ -15457,8 +16232,9 @@
         <v>33</v>
       </c>
       <c r="L475" s="5"/>
-    </row>
-    <row r="476" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M475" s="5"/>
+    </row>
+    <row r="476" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="17">
         <v>1475</v>
       </c>
@@ -15481,8 +16257,9 @@
         <v>33</v>
       </c>
       <c r="L476" s="5"/>
-    </row>
-    <row r="477" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M476" s="5"/>
+    </row>
+    <row r="477" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="17">
         <v>1476</v>
       </c>
@@ -15505,8 +16282,9 @@
         <v>33</v>
       </c>
       <c r="L477" s="5"/>
-    </row>
-    <row r="478" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M477" s="5"/>
+    </row>
+    <row r="478" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="17">
         <v>1477</v>
       </c>
@@ -15529,8 +16307,9 @@
         <v>33</v>
       </c>
       <c r="L478" s="5"/>
-    </row>
-    <row r="479" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M478" s="5"/>
+    </row>
+    <row r="479" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="17">
         <v>1478</v>
       </c>
@@ -15565,8 +16344,11 @@
         <v>30</v>
       </c>
       <c r="L479" s="5"/>
-    </row>
-    <row r="480" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M479" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="480" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="17">
         <v>1479</v>
       </c>
@@ -15591,8 +16373,9 @@
       <c r="L480" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="481" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M480" s="5"/>
+    </row>
+    <row r="481" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="17">
         <v>1480</v>
       </c>
@@ -15617,8 +16400,9 @@
       <c r="L481" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="482" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M481" s="5"/>
+    </row>
+    <row r="482" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="17">
         <v>1481</v>
       </c>
@@ -15641,8 +16425,9 @@
         <v>33</v>
       </c>
       <c r="L482" s="5"/>
-    </row>
-    <row r="483" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M482" s="5"/>
+    </row>
+    <row r="483" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="17">
         <v>1482</v>
       </c>
@@ -15669,8 +16454,9 @@
         <v>30</v>
       </c>
       <c r="L483" s="5"/>
-    </row>
-    <row r="484" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M483" s="5"/>
+    </row>
+    <row r="484" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="17">
         <v>1483</v>
       </c>
@@ -15697,8 +16483,9 @@
         <v>30</v>
       </c>
       <c r="L484" s="5"/>
-    </row>
-    <row r="485" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M484" s="5"/>
+    </row>
+    <row r="485" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="17">
         <v>1484</v>
       </c>
@@ -15725,8 +16512,9 @@
         <v>30</v>
       </c>
       <c r="L485" s="5"/>
-    </row>
-    <row r="486" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M485" s="5"/>
+    </row>
+    <row r="486" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="17">
         <v>1485</v>
       </c>
@@ -15749,8 +16537,9 @@
         <v>33</v>
       </c>
       <c r="L486" s="5"/>
-    </row>
-    <row r="487" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M486" s="5"/>
+    </row>
+    <row r="487" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="17">
         <v>1486</v>
       </c>
@@ -15777,8 +16566,9 @@
         <v>30</v>
       </c>
       <c r="L487" s="5"/>
-    </row>
-    <row r="488" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M487" s="5"/>
+    </row>
+    <row r="488" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="17">
         <v>1487</v>
       </c>
@@ -15805,8 +16595,9 @@
         <v>30</v>
       </c>
       <c r="L488" s="5"/>
-    </row>
-    <row r="489" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M488" s="5"/>
+    </row>
+    <row r="489" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="17">
         <v>1488</v>
       </c>
@@ -15833,8 +16624,9 @@
         <v>30</v>
       </c>
       <c r="L489" s="5"/>
-    </row>
-    <row r="490" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M489" s="5"/>
+    </row>
+    <row r="490" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="17">
         <v>1489</v>
       </c>
@@ -15869,8 +16661,11 @@
       <c r="L490" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="491" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M490" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="491" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="17">
         <v>1490</v>
       </c>
@@ -15899,8 +16694,9 @@
       </c>
       <c r="K491" s="5"/>
       <c r="L491" s="5"/>
-    </row>
-    <row r="492" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M491" s="5"/>
+    </row>
+    <row r="492" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="17">
         <v>1491</v>
       </c>
@@ -15927,8 +16723,9 @@
         <v>30</v>
       </c>
       <c r="L492" s="5"/>
-    </row>
-    <row r="493" spans="1:12" s="4" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M492" s="5"/>
+    </row>
+    <row r="493" spans="1:13" s="4" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A493" s="18">
         <v>1492</v>
       </c>
@@ -15955,8 +16752,9 @@
         <v>30</v>
       </c>
       <c r="L493" s="7"/>
-    </row>
-    <row r="494" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M493" s="7"/>
+    </row>
+    <row r="494" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="19">
         <v>1493</v>
       </c>
@@ -15983,8 +16781,9 @@
         <v>30</v>
       </c>
       <c r="L494" s="8"/>
-    </row>
-    <row r="495" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M494" s="8"/>
+    </row>
+    <row r="495" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="17">
         <v>1494</v>
       </c>
@@ -16011,8 +16810,9 @@
         <v>30</v>
       </c>
       <c r="L495" s="5"/>
-    </row>
-    <row r="496" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M495" s="5"/>
+    </row>
+    <row r="496" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="17">
         <v>1495</v>
       </c>
@@ -16043,8 +16843,9 @@
         <v>30</v>
       </c>
       <c r="L496" s="5"/>
-    </row>
-    <row r="497" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M496" s="5"/>
+    </row>
+    <row r="497" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="17">
         <v>1496</v>
       </c>
@@ -16071,8 +16872,9 @@
         <v>30</v>
       </c>
       <c r="L497" s="5"/>
-    </row>
-    <row r="498" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M497" s="5"/>
+    </row>
+    <row r="498" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="17">
         <v>1497</v>
       </c>
@@ -16099,8 +16901,9 @@
         <v>30</v>
       </c>
       <c r="L498" s="5"/>
-    </row>
-    <row r="499" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M498" s="5"/>
+    </row>
+    <row r="499" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="17">
         <v>1498</v>
       </c>
@@ -16123,8 +16926,9 @@
         <v>33</v>
       </c>
       <c r="L499" s="5"/>
-    </row>
-    <row r="500" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M499" s="5"/>
+    </row>
+    <row r="500" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="17">
         <v>1499</v>
       </c>
@@ -16151,8 +16955,9 @@
         <v>30</v>
       </c>
       <c r="L500" s="5"/>
-    </row>
-    <row r="501" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M500" s="5"/>
+    </row>
+    <row r="501" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="17">
         <v>1500</v>
       </c>
@@ -16175,8 +16980,9 @@
         <v>33</v>
       </c>
       <c r="L501" s="5"/>
-    </row>
-    <row r="502" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M501" s="5"/>
+    </row>
+    <row r="502" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="17">
         <v>1501</v>
       </c>
@@ -16199,8 +17005,9 @@
         <v>33</v>
       </c>
       <c r="L502" s="5"/>
-    </row>
-    <row r="503" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M502" s="5"/>
+    </row>
+    <row r="503" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="17">
         <v>1502</v>
       </c>
@@ -16223,8 +17030,9 @@
         <v>33</v>
       </c>
       <c r="L503" s="5"/>
-    </row>
-    <row r="504" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M503" s="5"/>
+    </row>
+    <row r="504" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="17">
         <v>1503</v>
       </c>
@@ -16247,8 +17055,9 @@
         <v>33</v>
       </c>
       <c r="L504" s="5"/>
-    </row>
-    <row r="505" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M504" s="5"/>
+    </row>
+    <row r="505" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="17">
         <v>1504</v>
       </c>
@@ -16271,8 +17080,9 @@
         <v>33</v>
       </c>
       <c r="L505" s="5"/>
-    </row>
-    <row r="506" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M505" s="5"/>
+    </row>
+    <row r="506" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="17">
         <v>1505</v>
       </c>
@@ -16295,8 +17105,9 @@
         <v>33</v>
       </c>
       <c r="L506" s="5"/>
-    </row>
-    <row r="507" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M506" s="5"/>
+    </row>
+    <row r="507" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="17">
         <v>1506</v>
       </c>
@@ -16319,8 +17130,9 @@
         <v>33</v>
       </c>
       <c r="L507" s="5"/>
-    </row>
-    <row r="508" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M507" s="5"/>
+    </row>
+    <row r="508" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="17">
         <v>1507</v>
       </c>
@@ -16343,8 +17155,9 @@
         <v>33</v>
       </c>
       <c r="L508" s="5"/>
-    </row>
-    <row r="509" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M508" s="5"/>
+    </row>
+    <row r="509" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="17">
         <v>1508</v>
       </c>
@@ -16367,8 +17180,9 @@
         <v>33</v>
       </c>
       <c r="L509" s="5"/>
-    </row>
-    <row r="510" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M509" s="5"/>
+    </row>
+    <row r="510" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="17">
         <v>1509</v>
       </c>
@@ -16391,8 +17205,9 @@
         <v>33</v>
       </c>
       <c r="L510" s="5"/>
-    </row>
-    <row r="511" spans="1:12" s="4" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M510" s="5"/>
+    </row>
+    <row r="511" spans="1:13" s="4" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A511" s="18">
         <v>1510</v>
       </c>
@@ -16415,8 +17230,9 @@
         <v>33</v>
       </c>
       <c r="L511" s="7"/>
-    </row>
-    <row r="512" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M511" s="7"/>
+    </row>
+    <row r="512" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="19">
         <v>1511</v>
       </c>
@@ -16449,8 +17265,9 @@
       <c r="L512" s="8" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="513" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M512" s="8"/>
+    </row>
+    <row r="513" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="17">
         <v>1512</v>
       </c>
@@ -16475,8 +17292,9 @@
         <v>30</v>
       </c>
       <c r="L513" s="5"/>
-    </row>
-    <row r="514" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M513" s="5"/>
+    </row>
+    <row r="514" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="17">
         <v>1513</v>
       </c>
@@ -16507,8 +17325,9 @@
         <v>30</v>
       </c>
       <c r="L514" s="5"/>
-    </row>
-    <row r="515" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M514" s="5"/>
+    </row>
+    <row r="515" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="17">
         <v>1514</v>
       </c>
@@ -16541,8 +17360,9 @@
       <c r="L515" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="516" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M515" s="5"/>
+    </row>
+    <row r="516" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="17">
         <v>1515</v>
       </c>
@@ -16575,8 +17395,9 @@
       <c r="L516" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="517" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M516" s="5"/>
+    </row>
+    <row r="517" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="17">
         <v>1516</v>
       </c>
@@ -16605,8 +17426,9 @@
       <c r="L517" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="518" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M517" s="5"/>
+    </row>
+    <row r="518" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="17">
         <v>1517</v>
       </c>
@@ -16641,8 +17463,11 @@
         <v>30</v>
       </c>
       <c r="L518" s="5"/>
-    </row>
-    <row r="519" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M518" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="519" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="17">
         <v>1518</v>
       </c>
@@ -16675,8 +17500,9 @@
       <c r="L519" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="520" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M519" s="5"/>
+    </row>
+    <row r="520" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="17">
         <v>1519</v>
       </c>
@@ -16701,8 +17527,9 @@
         <v>30</v>
       </c>
       <c r="L520" s="5"/>
-    </row>
-    <row r="521" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M520" s="5"/>
+    </row>
+    <row r="521" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="17">
         <v>1520</v>
       </c>
@@ -16727,8 +17554,9 @@
         <v>30</v>
       </c>
       <c r="L521" s="5"/>
-    </row>
-    <row r="522" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M521" s="5"/>
+    </row>
+    <row r="522" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="17">
         <v>1521</v>
       </c>
@@ -16755,8 +17583,9 @@
         <v>30</v>
       </c>
       <c r="L522" s="5"/>
-    </row>
-    <row r="523" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M522" s="5"/>
+    </row>
+    <row r="523" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="17">
         <v>1522</v>
       </c>
@@ -16789,8 +17618,9 @@
       <c r="L523" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="524" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M523" s="5"/>
+    </row>
+    <row r="524" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="17">
         <v>1523</v>
       </c>
@@ -16817,8 +17647,9 @@
         <v>30</v>
       </c>
       <c r="L524" s="5"/>
-    </row>
-    <row r="525" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M524" s="5"/>
+    </row>
+    <row r="525" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="17">
         <v>1524</v>
       </c>
@@ -16851,8 +17682,9 @@
       <c r="L525" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="526" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M525" s="5"/>
+    </row>
+    <row r="526" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="17">
         <v>1525</v>
       </c>
@@ -16879,8 +17711,9 @@
       <c r="L526" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="527" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M526" s="5"/>
+    </row>
+    <row r="527" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="17">
         <v>1526</v>
       </c>
@@ -16913,8 +17746,9 @@
       <c r="L527" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="528" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M527" s="5"/>
+    </row>
+    <row r="528" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="17">
         <v>1527</v>
       </c>
@@ -16947,8 +17781,9 @@
       <c r="L528" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="529" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M528" s="5"/>
+    </row>
+    <row r="529" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="17">
         <v>1528</v>
       </c>
@@ -16975,8 +17810,9 @@
         <v>30</v>
       </c>
       <c r="L529" s="5"/>
-    </row>
-    <row r="530" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M529" s="5"/>
+    </row>
+    <row r="530" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="17">
         <v>1529</v>
       </c>
@@ -17013,8 +17849,11 @@
       <c r="L530" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="531" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M530" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="531" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="17">
         <v>1530</v>
       </c>
@@ -17051,8 +17890,11 @@
       <c r="L531" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="532" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M531" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="532" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="17">
         <v>1531</v>
       </c>
@@ -17085,8 +17927,9 @@
       <c r="L532" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="533" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M532" s="5"/>
+    </row>
+    <row r="533" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="17">
         <v>1532</v>
       </c>
@@ -17113,8 +17956,9 @@
         <v>30</v>
       </c>
       <c r="L533" s="5"/>
-    </row>
-    <row r="534" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M533" s="5"/>
+    </row>
+    <row r="534" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="17">
         <v>1533</v>
       </c>
@@ -17137,8 +17981,9 @@
       <c r="L534" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="535" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M534" s="5"/>
+    </row>
+    <row r="535" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="17">
         <v>1534</v>
       </c>
@@ -17165,8 +18010,9 @@
         <v>30</v>
       </c>
       <c r="L535" s="5"/>
-    </row>
-    <row r="536" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M535" s="5"/>
+    </row>
+    <row r="536" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="17">
         <v>1535</v>
       </c>
@@ -17197,8 +18043,9 @@
         <v>30</v>
       </c>
       <c r="L536" s="5"/>
-    </row>
-    <row r="537" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M536" s="5"/>
+    </row>
+    <row r="537" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="17">
         <v>1536</v>
       </c>
@@ -17233,8 +18080,11 @@
         <v>30</v>
       </c>
       <c r="L537" s="5"/>
-    </row>
-    <row r="538" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M537" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="538" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="17">
         <v>1537</v>
       </c>
@@ -17265,8 +18115,9 @@
         <v>30</v>
       </c>
       <c r="L538" s="5"/>
-    </row>
-    <row r="539" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M538" s="5"/>
+    </row>
+    <row r="539" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="17">
         <v>1538</v>
       </c>
@@ -17301,8 +18152,11 @@
       <c r="L539" s="5" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="540" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M539" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="540" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="17">
         <v>1539</v>
       </c>
@@ -17325,8 +18179,9 @@
       <c r="L540" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="541" spans="1:12" s="4" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M540" s="5"/>
+    </row>
+    <row r="541" spans="1:13" s="4" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A541" s="18">
         <v>1540</v>
       </c>
@@ -17349,8 +18204,9 @@
       <c r="L541" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="542" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M541" s="7"/>
+    </row>
+    <row r="542" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="19">
         <v>1541</v>
       </c>
@@ -17377,8 +18233,9 @@
         <v>30</v>
       </c>
       <c r="L542" s="8"/>
-    </row>
-    <row r="543" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M542" s="8"/>
+    </row>
+    <row r="543" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="17">
         <v>1542</v>
       </c>
@@ -17415,8 +18272,11 @@
       <c r="L543" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="544" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M543" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="544" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="17">
         <v>1543</v>
       </c>
@@ -17443,8 +18303,9 @@
         <v>30</v>
       </c>
       <c r="L544" s="5"/>
-    </row>
-    <row r="545" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M544" s="5"/>
+    </row>
+    <row r="545" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="17">
         <v>1544</v>
       </c>
@@ -17479,8 +18340,11 @@
         <v>30</v>
       </c>
       <c r="L545" s="5"/>
-    </row>
-    <row r="546" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M545" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="546" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="17">
         <v>1544.5</v>
       </c>
@@ -17513,8 +18377,9 @@
         <v>30</v>
       </c>
       <c r="L546" s="5"/>
-    </row>
-    <row r="547" spans="1:12" s="4" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M546" s="5"/>
+    </row>
+    <row r="547" spans="1:13" s="4" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A547" s="18">
         <v>1545</v>
       </c>
@@ -17545,8 +18410,9 @@
       <c r="L547" s="7" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="548" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M547" s="7"/>
+    </row>
+    <row r="548" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="19">
         <v>1546</v>
       </c>
@@ -17581,8 +18447,11 @@
         <v>30</v>
       </c>
       <c r="L548" s="8"/>
-    </row>
-    <row r="549" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M548" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="549" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="17">
         <v>1547</v>
       </c>
@@ -17617,8 +18486,11 @@
         <v>30</v>
       </c>
       <c r="L549" s="5"/>
-    </row>
-    <row r="550" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M549" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="550" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="17">
         <v>1548</v>
       </c>
@@ -17653,8 +18525,11 @@
         <v>30</v>
       </c>
       <c r="L550" s="5"/>
-    </row>
-    <row r="551" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M550" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="551" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="17">
         <v>1549</v>
       </c>
@@ -17683,8 +18558,9 @@
       <c r="L551" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="552" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M551" s="5"/>
+    </row>
+    <row r="552" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="17">
         <v>1550</v>
       </c>
@@ -17713,8 +18589,9 @@
       <c r="L552" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="553" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M552" s="5"/>
+    </row>
+    <row r="553" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="17">
         <v>1551</v>
       </c>
@@ -17751,8 +18628,11 @@
       <c r="L553" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="554" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M553" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="554" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="17">
         <v>1552</v>
       </c>
@@ -17787,8 +18667,11 @@
         <v>30</v>
       </c>
       <c r="L554" s="5"/>
-    </row>
-    <row r="555" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M554" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="555" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="17">
         <v>1553</v>
       </c>
@@ -17823,8 +18706,11 @@
         <v>30</v>
       </c>
       <c r="L555" s="5"/>
-    </row>
-    <row r="556" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M555" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="556" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="17">
         <v>1554</v>
       </c>
@@ -17857,8 +18743,9 @@
       <c r="L556" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="557" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M556" s="5"/>
+    </row>
+    <row r="557" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="17">
         <v>1554.5</v>
       </c>
@@ -17891,8 +18778,11 @@
       <c r="L557" s="5" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="558" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M557" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="558" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="17">
         <v>1555</v>
       </c>
@@ -17929,8 +18819,11 @@
       <c r="L558" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="559" spans="1:12" s="4" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M558" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="559" spans="1:13" s="4" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A559" s="18">
         <v>1556</v>
       </c>
@@ -17957,8 +18850,9 @@
         <v>30</v>
       </c>
       <c r="L559" s="7"/>
-    </row>
-    <row r="560" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M559" s="7"/>
+    </row>
+    <row r="560" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="19">
         <v>1557</v>
       </c>
@@ -17989,8 +18883,9 @@
       <c r="L560" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="561" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M560" s="5"/>
+    </row>
+    <row r="561" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="19">
         <v>1557.5</v>
       </c>
@@ -18025,8 +18920,11 @@
         <v>30</v>
       </c>
       <c r="L561" s="5"/>
-    </row>
-    <row r="562" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M561" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="562" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="17">
         <v>1558</v>
       </c>
@@ -18057,8 +18955,9 @@
         <v>30</v>
       </c>
       <c r="L562" s="5"/>
-    </row>
-    <row r="563" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M562" s="5"/>
+    </row>
+    <row r="563" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="17">
         <v>1558.5</v>
       </c>
@@ -18088,8 +18987,11 @@
         <v>30</v>
       </c>
       <c r="L563" s="5"/>
-    </row>
-    <row r="564" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M563" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="564" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="17">
         <v>1559</v>
       </c>
@@ -18124,8 +19026,9 @@
       <c r="L564" s="5" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="565" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M564" s="5"/>
+    </row>
+    <row r="565" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="17">
         <v>1559.5</v>
       </c>
@@ -18156,8 +19059,11 @@
       </c>
       <c r="K565" s="10"/>
       <c r="L565" s="5"/>
-    </row>
-    <row r="566" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M565" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="566" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="17">
         <v>1560</v>
       </c>
@@ -18192,8 +19098,11 @@
         <v>30</v>
       </c>
       <c r="L566" s="5"/>
-    </row>
-    <row r="567" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M566" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="567" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="17">
         <v>1560.5</v>
       </c>
@@ -18226,8 +19135,11 @@
       </c>
       <c r="K567" s="10"/>
       <c r="L567" s="5"/>
-    </row>
-    <row r="568" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M567" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="568" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="17">
         <v>1561</v>
       </c>
@@ -18262,8 +19174,11 @@
         <v>30</v>
       </c>
       <c r="L568" s="5"/>
-    </row>
-    <row r="569" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M568" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="569" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="17">
         <v>1562</v>
       </c>
@@ -18290,8 +19205,9 @@
         <v>30</v>
       </c>
       <c r="L569" s="5"/>
-    </row>
-    <row r="570" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M569" s="5"/>
+    </row>
+    <row r="570" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="17">
         <v>1562.5</v>
       </c>
@@ -18324,8 +19240,9 @@
         <v>33</v>
       </c>
       <c r="L570" s="5"/>
-    </row>
-    <row r="571" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M570" s="5"/>
+    </row>
+    <row r="571" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="17">
         <v>1563</v>
       </c>
@@ -18362,8 +19279,11 @@
       <c r="L571" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="572" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M571" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="572" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="17">
         <v>1563.5</v>
       </c>
@@ -18396,8 +19316,11 @@
         <v>33</v>
       </c>
       <c r="L572" s="5"/>
-    </row>
-    <row r="573" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M572" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="573" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="17">
         <v>1564</v>
       </c>
@@ -18434,8 +19357,11 @@
       <c r="L573" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="574" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M573" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="574" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="17">
         <v>1565</v>
       </c>
@@ -18470,8 +19396,11 @@
         <v>30</v>
       </c>
       <c r="L574" s="5"/>
-    </row>
-    <row r="575" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M574" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="575" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="17">
         <v>1566</v>
       </c>
@@ -18502,8 +19431,9 @@
         <v>30</v>
       </c>
       <c r="L575" s="5"/>
-    </row>
-    <row r="576" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M575" s="5"/>
+    </row>
+    <row r="576" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="17">
         <v>1566.5</v>
       </c>
@@ -18530,8 +19460,11 @@
       <c r="J576" s="5"/>
       <c r="K576" s="10"/>
       <c r="L576" s="5"/>
-    </row>
-    <row r="577" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M576" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="577" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="17">
         <v>1567</v>
       </c>
@@ -18568,8 +19501,11 @@
       <c r="L577" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="578" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M577" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="578" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="17">
         <v>1568</v>
       </c>
@@ -18596,8 +19532,9 @@
         <v>30</v>
       </c>
       <c r="L578" s="5"/>
-    </row>
-    <row r="579" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M578" s="5"/>
+    </row>
+    <row r="579" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="23">
         <v>1568.5</v>
       </c>
@@ -18630,8 +19567,11 @@
       </c>
       <c r="K579" s="24"/>
       <c r="L579" s="25"/>
-    </row>
-    <row r="580" spans="1:12" s="4" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M579" s="25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="580" spans="1:13" s="4" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A580" s="18">
         <v>1569</v>
       </c>
@@ -18658,8 +19598,9 @@
         <v>30</v>
       </c>
       <c r="L580" s="7"/>
-    </row>
-    <row r="581" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M580" s="7"/>
+    </row>
+    <row r="581" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="19">
         <v>1570</v>
       </c>
@@ -18694,8 +19635,9 @@
         <v>30</v>
       </c>
       <c r="L581" s="8"/>
-    </row>
-    <row r="582" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M581" s="8"/>
+    </row>
+    <row r="582" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="17">
         <v>1571</v>
       </c>
@@ -18722,8 +19664,9 @@
         <v>30</v>
       </c>
       <c r="L582" s="5"/>
-    </row>
-    <row r="583" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M582" s="5"/>
+    </row>
+    <row r="583" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="17">
         <v>1572</v>
       </c>
@@ -18746,8 +19689,9 @@
         <v>33</v>
       </c>
       <c r="L583" s="5"/>
-    </row>
-    <row r="584" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M583" s="5"/>
+    </row>
+    <row r="584" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="17">
         <v>1573</v>
       </c>
@@ -18770,8 +19714,9 @@
         <v>33</v>
       </c>
       <c r="L584" s="5"/>
-    </row>
-    <row r="585" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M584" s="5"/>
+    </row>
+    <row r="585" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="17">
         <v>1574</v>
       </c>
@@ -18794,8 +19739,9 @@
         <v>33</v>
       </c>
       <c r="L585" s="5"/>
-    </row>
-    <row r="586" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M585" s="5"/>
+    </row>
+    <row r="586" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="17">
         <v>1575</v>
       </c>
@@ -18818,8 +19764,9 @@
         <v>33</v>
       </c>
       <c r="L586" s="5"/>
-    </row>
-    <row r="587" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M586" s="5"/>
+    </row>
+    <row r="587" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="17">
         <v>1576</v>
       </c>
@@ -18842,8 +19789,9 @@
         <v>33</v>
       </c>
       <c r="L587" s="5"/>
-    </row>
-    <row r="588" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M587" s="5"/>
+    </row>
+    <row r="588" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="17">
         <v>1577</v>
       </c>
@@ -18866,8 +19814,9 @@
         <v>33</v>
       </c>
       <c r="L588" s="5"/>
-    </row>
-    <row r="589" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M588" s="5"/>
+    </row>
+    <row r="589" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="17">
         <v>1578</v>
       </c>
@@ -18890,8 +19839,9 @@
         <v>33</v>
       </c>
       <c r="L589" s="5"/>
-    </row>
-    <row r="590" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M589" s="5"/>
+    </row>
+    <row r="590" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="17">
         <v>1579</v>
       </c>
@@ -18914,8 +19864,9 @@
         <v>33</v>
       </c>
       <c r="L590" s="5"/>
-    </row>
-    <row r="591" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M590" s="5"/>
+    </row>
+    <row r="591" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="17">
         <v>1580</v>
       </c>
@@ -18938,8 +19889,9 @@
         <v>33</v>
       </c>
       <c r="L591" s="5"/>
-    </row>
-    <row r="592" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M591" s="5"/>
+    </row>
+    <row r="592" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="17">
         <v>1581</v>
       </c>
@@ -18962,8 +19914,9 @@
         <v>33</v>
       </c>
       <c r="L592" s="5"/>
-    </row>
-    <row r="593" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M592" s="5"/>
+    </row>
+    <row r="593" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="17">
         <v>1582</v>
       </c>
@@ -18986,8 +19939,9 @@
         <v>33</v>
       </c>
       <c r="L593" s="5"/>
-    </row>
-    <row r="594" spans="1:12" s="4" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M593" s="5"/>
+    </row>
+    <row r="594" spans="1:13" s="4" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A594" s="18">
         <v>1583</v>
       </c>
@@ -19010,8 +19964,9 @@
         <v>33</v>
       </c>
       <c r="L594" s="7"/>
-    </row>
-    <row r="595" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M594" s="7"/>
+    </row>
+    <row r="595" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="19">
         <v>1584</v>
       </c>
@@ -19046,8 +20001,11 @@
         <v>30</v>
       </c>
       <c r="L595" s="8"/>
-    </row>
-    <row r="596" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M595" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="596" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="17">
         <v>1585</v>
       </c>
@@ -19082,8 +20040,11 @@
         <v>30</v>
       </c>
       <c r="L596" s="5"/>
-    </row>
-    <row r="597" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M596" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="597" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="17">
         <v>1586</v>
       </c>
@@ -19118,8 +20079,11 @@
         <v>30</v>
       </c>
       <c r="L597" s="5"/>
-    </row>
-    <row r="598" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M597" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="598" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="17">
         <v>1587</v>
       </c>
@@ -19154,8 +20118,11 @@
         <v>30</v>
       </c>
       <c r="L598" s="5"/>
-    </row>
-    <row r="599" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M598" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="599" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="17">
         <v>1588</v>
       </c>
@@ -19186,8 +20153,9 @@
         <v>30</v>
       </c>
       <c r="L599" s="5"/>
-    </row>
-    <row r="600" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M599" s="5"/>
+    </row>
+    <row r="600" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="17">
         <v>1589</v>
       </c>
@@ -19224,8 +20192,11 @@
       <c r="L600" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="601" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M600" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="601" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="17">
         <v>1590</v>
       </c>
@@ -19256,8 +20227,9 @@
         <v>30</v>
       </c>
       <c r="L601" s="5"/>
-    </row>
-    <row r="602" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M601" s="5"/>
+    </row>
+    <row r="602" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="17">
         <v>1591</v>
       </c>
@@ -19290,8 +20262,9 @@
       <c r="L602" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="603" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M602" s="5"/>
+    </row>
+    <row r="603" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="17">
         <v>1592</v>
       </c>
@@ -19318,8 +20291,9 @@
         <v>30</v>
       </c>
       <c r="L603" s="5"/>
-    </row>
-    <row r="604" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M603" s="5"/>
+    </row>
+    <row r="604" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="17">
         <v>1593</v>
       </c>
@@ -19346,8 +20320,9 @@
         <v>30</v>
       </c>
       <c r="L604" s="5"/>
-    </row>
-    <row r="605" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M604" s="5"/>
+    </row>
+    <row r="605" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="17">
         <v>1594</v>
       </c>
@@ -19384,8 +20359,11 @@
       <c r="L605" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="606" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M605" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="606" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="17">
         <v>1595</v>
       </c>
@@ -19418,8 +20396,9 @@
       <c r="L606" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="607" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M606" s="5"/>
+    </row>
+    <row r="607" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="17">
         <v>1596</v>
       </c>
@@ -19454,8 +20433,11 @@
         <v>30</v>
       </c>
       <c r="L607" s="5"/>
-    </row>
-    <row r="608" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M607" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="608" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="17">
         <v>1597</v>
       </c>
@@ -19482,8 +20464,9 @@
         <v>30</v>
       </c>
       <c r="L608" s="5"/>
-    </row>
-    <row r="609" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M608" s="5"/>
+    </row>
+    <row r="609" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="17">
         <v>1598</v>
       </c>
@@ -19520,8 +20503,11 @@
       <c r="L609" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="610" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M609" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="610" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="17">
         <v>1599</v>
       </c>
@@ -19554,8 +20540,9 @@
       <c r="L610" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="611" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M610" s="5"/>
+    </row>
+    <row r="611" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="17">
         <v>1600</v>
       </c>
@@ -19588,8 +20575,9 @@
       <c r="L611" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="612" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M611" s="5"/>
+    </row>
+    <row r="612" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="17">
         <v>1601</v>
       </c>
@@ -19620,8 +20608,9 @@
         <v>30</v>
       </c>
       <c r="L612" s="5"/>
-    </row>
-    <row r="613" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M612" s="5"/>
+    </row>
+    <row r="613" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="17">
         <v>1602</v>
       </c>
@@ -19648,8 +20637,9 @@
         <v>30</v>
       </c>
       <c r="L613" s="5"/>
-    </row>
-    <row r="614" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M613" s="5"/>
+    </row>
+    <row r="614" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="17">
         <v>1603</v>
       </c>
@@ -19684,8 +20674,11 @@
         <v>30</v>
       </c>
       <c r="L614" s="5"/>
-    </row>
-    <row r="615" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M614" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="615" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="17">
         <v>1604</v>
       </c>
@@ -19720,8 +20713,11 @@
         <v>30</v>
       </c>
       <c r="L615" s="5"/>
-    </row>
-    <row r="616" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M615" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="616" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="17">
         <v>1605</v>
       </c>
@@ -19756,8 +20752,11 @@
         <v>30</v>
       </c>
       <c r="L616" s="5"/>
-    </row>
-    <row r="617" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M616" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="617" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="17">
         <v>1606</v>
       </c>
@@ -19794,8 +20793,11 @@
       <c r="L617" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="618" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M617" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="618" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="17">
         <v>1607</v>
       </c>
@@ -19832,8 +20834,11 @@
       <c r="L618" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="619" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M618" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="619" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="17">
         <v>1608</v>
       </c>
@@ -19860,8 +20865,9 @@
         <v>30</v>
       </c>
       <c r="L619" s="5"/>
-    </row>
-    <row r="620" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M619" s="5"/>
+    </row>
+    <row r="620" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="17">
         <v>1609</v>
       </c>
@@ -19896,8 +20902,11 @@
         <v>30</v>
       </c>
       <c r="L620" s="5"/>
-    </row>
-    <row r="621" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M620" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="621" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="17">
         <v>1610</v>
       </c>
@@ -19920,8 +20929,9 @@
         <v>33</v>
       </c>
       <c r="L621" s="5"/>
-    </row>
-    <row r="622" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M621" s="5"/>
+    </row>
+    <row r="622" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="17">
         <v>1611</v>
       </c>
@@ -19954,8 +20964,9 @@
       <c r="L622" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="623" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M622" s="5"/>
+    </row>
+    <row r="623" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="17">
         <v>1612</v>
       </c>
@@ -19990,8 +21001,11 @@
         <v>30</v>
       </c>
       <c r="L623" s="5"/>
-    </row>
-    <row r="624" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M623" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="624" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="17">
         <v>1613</v>
       </c>
@@ -20020,6 +21034,7 @@
       <c r="L624" s="5" t="s">
         <v>53</v>
       </c>
+      <c r="M624" s="5"/>
     </row>
     <row r="625" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="17">
@@ -20046,6 +21061,7 @@
         <v>30</v>
       </c>
       <c r="L625" s="5"/>
+      <c r="M625" s="5"/>
     </row>
     <row r="626" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="17">
@@ -20078,6 +21094,7 @@
         <v>30</v>
       </c>
       <c r="L626" s="5"/>
+      <c r="M626" s="5"/>
     </row>
     <row r="627" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="17">
@@ -20114,6 +21131,9 @@
         <v>30</v>
       </c>
       <c r="L627" s="5"/>
+      <c r="M627" s="5" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="628" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="17">
@@ -20144,6 +21164,7 @@
       <c r="L628" s="5" t="s">
         <v>53</v>
       </c>
+      <c r="M628" s="5"/>
     </row>
     <row r="629" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="17">
@@ -20174,6 +21195,7 @@
       <c r="L629" s="5" t="s">
         <v>71</v>
       </c>
+      <c r="M629" s="5"/>
     </row>
     <row r="630" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="17">
@@ -20198,6 +21220,7 @@
       <c r="J630" s="5"/>
       <c r="K630" s="5"/>
       <c r="L630" s="5"/>
+      <c r="M630" s="5"/>
     </row>
     <row r="631" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="17">
@@ -20234,6 +21257,9 @@
         <v>30</v>
       </c>
       <c r="L631" s="5"/>
+      <c r="M631" s="5" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="632" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="17">
@@ -20258,6 +21284,7 @@
         <v>33</v>
       </c>
       <c r="L632" s="5"/>
+      <c r="M632" s="5"/>
     </row>
     <row r="633" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="17">
@@ -20294,7 +21321,9 @@
         <v>30</v>
       </c>
       <c r="L633" s="5"/>
-      <c r="M633" s="13"/>
+      <c r="M633" s="5" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="634" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="17">
@@ -20327,6 +21356,7 @@
         <v>30</v>
       </c>
       <c r="L634" s="5"/>
+      <c r="M634" s="5"/>
     </row>
     <row r="635" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="17">
@@ -20361,6 +21391,7 @@
       <c r="L635" s="5" t="s">
         <v>73</v>
       </c>
+      <c r="M635" s="5"/>
     </row>
     <row r="636" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="17">
@@ -20383,6 +21414,7 @@
       <c r="L636" s="5" t="s">
         <v>94</v>
       </c>
+      <c r="M636" s="5"/>
     </row>
     <row r="637" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="17">
@@ -20417,6 +21449,7 @@
       <c r="L637" s="5" t="s">
         <v>64</v>
       </c>
+      <c r="M637" s="5"/>
     </row>
     <row r="638" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="17">
@@ -20451,6 +21484,7 @@
       <c r="L638" s="5" t="s">
         <v>64</v>
       </c>
+      <c r="M638" s="5"/>
     </row>
     <row r="639" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="17">
@@ -20487,6 +21521,9 @@
         <v>30</v>
       </c>
       <c r="L639" s="5"/>
+      <c r="M639" s="5" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="640" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="17">
@@ -20523,8 +21560,11 @@
         <v>30</v>
       </c>
       <c r="L640" s="5"/>
-    </row>
-    <row r="641" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M640" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="641" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="17">
         <v>1629</v>
       </c>
@@ -20553,8 +21593,9 @@
       <c r="L641" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="642" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M641" s="5"/>
+    </row>
+    <row r="642" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="17">
         <v>1630</v>
       </c>
@@ -20577,8 +21618,9 @@
         <v>33</v>
       </c>
       <c r="L642" s="5"/>
-    </row>
-    <row r="643" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M642" s="5"/>
+    </row>
+    <row r="643" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="17">
         <v>1631</v>
       </c>
@@ -20601,8 +21643,9 @@
         <v>33</v>
       </c>
       <c r="L643" s="5"/>
-    </row>
-    <row r="644" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M643" s="5"/>
+    </row>
+    <row r="644" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="17">
         <v>1632</v>
       </c>
@@ -20631,8 +21674,9 @@
       <c r="L644" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="645" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M644" s="5"/>
+    </row>
+    <row r="645" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="17">
         <v>1633</v>
       </c>
@@ -20663,8 +21707,9 @@
         <v>30</v>
       </c>
       <c r="L645" s="5"/>
-    </row>
-    <row r="646" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M645" s="5"/>
+    </row>
+    <row r="646" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="17">
         <v>1634</v>
       </c>
@@ -20695,8 +21740,9 @@
         <v>30</v>
       </c>
       <c r="L646" s="5"/>
-    </row>
-    <row r="647" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M646" s="5"/>
+    </row>
+    <row r="647" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="17">
         <v>1635.5</v>
       </c>
@@ -20717,8 +21763,9 @@
       <c r="L647" s="5" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="648" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M647" s="5"/>
+    </row>
+    <row r="648" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="17">
         <v>1635</v>
       </c>
@@ -20743,8 +21790,9 @@
       <c r="L648" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="649" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M648" s="5"/>
+    </row>
+    <row r="649" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="17">
         <v>1636</v>
       </c>
@@ -20769,8 +21817,9 @@
       <c r="L649" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="650" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M649" s="5"/>
+    </row>
+    <row r="650" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="17">
         <v>1637</v>
       </c>
@@ -20795,8 +21844,9 @@
         <v>30</v>
       </c>
       <c r="L650" s="5"/>
-    </row>
-    <row r="651" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M650" s="5"/>
+    </row>
+    <row r="651" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="17">
         <v>1638</v>
       </c>
@@ -20823,8 +21873,9 @@
         <v>30</v>
       </c>
       <c r="L651" s="5"/>
-    </row>
-    <row r="652" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M651" s="5"/>
+    </row>
+    <row r="652" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="17">
         <v>1639</v>
       </c>
@@ -20847,8 +21898,9 @@
       <c r="J652" s="5"/>
       <c r="K652" s="5"/>
       <c r="L652" s="5"/>
-    </row>
-    <row r="653" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M652" s="5"/>
+    </row>
+    <row r="653" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="17">
         <v>1640</v>
       </c>
@@ -20875,8 +21927,9 @@
         <v>30</v>
       </c>
       <c r="L653" s="5"/>
-    </row>
-    <row r="654" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M653" s="5"/>
+    </row>
+    <row r="654" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="17">
         <v>1641</v>
       </c>
@@ -20907,8 +21960,9 @@
         <v>30</v>
       </c>
       <c r="L654" s="5"/>
-    </row>
-    <row r="655" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M654" s="5"/>
+    </row>
+    <row r="655" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="17">
         <v>1642</v>
       </c>
@@ -20931,8 +21985,9 @@
       <c r="J655" s="5"/>
       <c r="K655" s="5"/>
       <c r="L655" s="5"/>
-    </row>
-    <row r="656" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M655" s="5"/>
+    </row>
+    <row r="656" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="17">
         <v>1643</v>
       </c>
@@ -20961,8 +22016,9 @@
       <c r="L656" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="657" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M656" s="5"/>
+    </row>
+    <row r="657" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="17">
         <v>1644</v>
       </c>
@@ -20989,8 +22045,9 @@
       </c>
       <c r="K657" s="5"/>
       <c r="L657" s="5"/>
-    </row>
-    <row r="658" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M657" s="5"/>
+    </row>
+    <row r="658" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="17">
         <v>1644.5</v>
       </c>
@@ -21011,8 +22068,9 @@
       <c r="L658" s="5" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="659" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M658" s="5"/>
+    </row>
+    <row r="659" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="17">
         <v>1645</v>
       </c>
@@ -21047,8 +22105,11 @@
         <v>30</v>
       </c>
       <c r="L659" s="5"/>
-    </row>
-    <row r="660" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M659" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="660" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="17">
         <v>1646</v>
       </c>
@@ -21085,8 +22146,11 @@
       <c r="L660" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="661" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M660" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="661" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="17">
         <v>1647</v>
       </c>
@@ -21117,8 +22181,9 @@
         <v>30</v>
       </c>
       <c r="L661" s="5"/>
-    </row>
-    <row r="662" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M661" s="5"/>
+    </row>
+    <row r="662" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="17">
         <v>1648</v>
       </c>
@@ -21151,8 +22216,9 @@
       <c r="L662" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="663" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M662" s="5"/>
+    </row>
+    <row r="663" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="17">
         <v>1649</v>
       </c>
@@ -21187,8 +22253,9 @@
         <v>30</v>
       </c>
       <c r="L663" s="5"/>
-    </row>
-    <row r="664" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M663" s="5"/>
+    </row>
+    <row r="664" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="17">
         <v>1650</v>
       </c>
@@ -21219,8 +22286,11 @@
         <v>30</v>
       </c>
       <c r="L664" s="5"/>
-    </row>
-    <row r="665" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M664" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="665" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="17">
         <v>1651</v>
       </c>
@@ -21247,8 +22317,9 @@
         <v>30</v>
       </c>
       <c r="L665" s="5"/>
-    </row>
-    <row r="666" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M665" s="5"/>
+    </row>
+    <row r="666" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="17">
         <v>1652</v>
       </c>
@@ -21275,8 +22346,9 @@
         <v>30</v>
       </c>
       <c r="L666" s="5"/>
-    </row>
-    <row r="667" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M666" s="5"/>
+    </row>
+    <row r="667" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="17">
         <v>1653</v>
       </c>
@@ -21301,8 +22373,9 @@
         <v>30</v>
       </c>
       <c r="L667" s="5"/>
-    </row>
-    <row r="668" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M667" s="5"/>
+    </row>
+    <row r="668" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="17">
         <v>1654</v>
       </c>
@@ -21329,8 +22402,9 @@
         <v>30</v>
       </c>
       <c r="L668" s="5"/>
-    </row>
-    <row r="669" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M668" s="5"/>
+    </row>
+    <row r="669" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="17">
         <v>1655</v>
       </c>
@@ -21363,8 +22437,11 @@
       <c r="L669" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="670" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M669" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="670" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="17">
         <v>1656</v>
       </c>
@@ -21393,8 +22470,9 @@
       <c r="L670" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="671" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M670" s="5"/>
+    </row>
+    <row r="671" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="17">
         <v>1657</v>
       </c>
@@ -21427,8 +22505,9 @@
       <c r="L671" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="672" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M671" s="5"/>
+    </row>
+    <row r="672" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="17">
         <v>1658</v>
       </c>
@@ -21457,8 +22536,9 @@
       <c r="L672" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="673" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M672" s="5"/>
+    </row>
+    <row r="673" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="17">
         <v>1659</v>
       </c>
@@ -21483,8 +22563,9 @@
         <v>30</v>
       </c>
       <c r="L673" s="5"/>
-    </row>
-    <row r="674" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M673" s="5"/>
+    </row>
+    <row r="674" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="17">
         <v>1660</v>
       </c>
@@ -21511,8 +22592,9 @@
         <v>30</v>
       </c>
       <c r="L674" s="5"/>
-    </row>
-    <row r="675" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M674" s="5"/>
+    </row>
+    <row r="675" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="17">
         <v>1661</v>
       </c>
@@ -21539,8 +22621,9 @@
         <v>30</v>
       </c>
       <c r="L675" s="5"/>
-    </row>
-    <row r="676" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M675" s="5"/>
+    </row>
+    <row r="676" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="17">
         <v>1662</v>
       </c>
@@ -21573,8 +22656,9 @@
       <c r="L676" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="677" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M676" s="5"/>
+    </row>
+    <row r="677" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="17">
         <v>1663</v>
       </c>
@@ -21605,8 +22689,9 @@
         <v>30</v>
       </c>
       <c r="L677" s="5"/>
-    </row>
-    <row r="678" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M677" s="5"/>
+    </row>
+    <row r="678" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678" s="17">
         <v>1664</v>
       </c>
@@ -21639,8 +22724,11 @@
       </c>
       <c r="K678" s="5"/>
       <c r="L678" s="5"/>
-    </row>
-    <row r="679" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M678" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="679" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="17">
         <v>1665</v>
       </c>
@@ -21675,8 +22763,11 @@
       <c r="L679" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="680" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M679" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="680" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="17">
         <v>1666</v>
       </c>
@@ -21701,8 +22792,9 @@
         <v>30</v>
       </c>
       <c r="L680" s="5"/>
-    </row>
-    <row r="681" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M680" s="5"/>
+    </row>
+    <row r="681" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="17">
         <v>1667</v>
       </c>
@@ -21731,8 +22823,9 @@
       </c>
       <c r="K681" s="5"/>
       <c r="L681" s="5"/>
-    </row>
-    <row r="682" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M681" s="5"/>
+    </row>
+    <row r="682" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A682" s="17">
         <v>1668</v>
       </c>
@@ -21763,8 +22856,9 @@
       <c r="L682" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="683" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M682" s="5"/>
+    </row>
+    <row r="683" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="17">
         <v>1669</v>
       </c>
@@ -21789,8 +22883,9 @@
         <v>30</v>
       </c>
       <c r="L683" s="5"/>
-    </row>
-    <row r="684" spans="1:12" s="4" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M683" s="5"/>
+    </row>
+    <row r="684" spans="1:13" s="4" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A684" s="18">
         <v>1670</v>
       </c>
@@ -21821,8 +22916,9 @@
       <c r="L684" s="7" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="685" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M684" s="7"/>
+    </row>
+    <row r="685" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="19">
         <v>1671</v>
       </c>
@@ -21845,8 +22941,9 @@
       <c r="J685" s="8"/>
       <c r="K685" s="8"/>
       <c r="L685" s="8"/>
-    </row>
-    <row r="686" spans="1:12" s="4" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M685" s="8"/>
+    </row>
+    <row r="686" spans="1:13" s="4" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A686" s="18">
         <v>1672</v>
       </c>
@@ -21877,8 +22974,11 @@
       </c>
       <c r="K686" s="7"/>
       <c r="L686" s="7"/>
-    </row>
-    <row r="687" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M686" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="687" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A687" s="19">
         <v>1673</v>
       </c>
@@ -21915,8 +23015,11 @@
       <c r="L687" s="8" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="688" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M687" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="688" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="17">
         <v>1674</v>
       </c>
@@ -21943,8 +23046,9 @@
         <v>30</v>
       </c>
       <c r="L688" s="5"/>
-    </row>
-    <row r="689" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M688" s="5"/>
+    </row>
+    <row r="689" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A689" s="17">
         <v>1675</v>
       </c>
@@ -21975,8 +23079,9 @@
         <v>30</v>
       </c>
       <c r="L689" s="5"/>
-    </row>
-    <row r="690" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M689" s="5"/>
+    </row>
+    <row r="690" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A690" s="17">
         <v>1676</v>
       </c>
@@ -22011,8 +23116,11 @@
         <v>30</v>
       </c>
       <c r="L690" s="5"/>
-    </row>
-    <row r="691" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M690" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="691" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A691" s="17">
         <v>1677</v>
       </c>
@@ -22047,8 +23155,9 @@
       <c r="L691" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="692" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M691" s="5"/>
+    </row>
+    <row r="692" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A692" s="17">
         <v>1678</v>
       </c>
@@ -22083,8 +23192,11 @@
         <v>30</v>
       </c>
       <c r="L692" s="5"/>
-    </row>
-    <row r="693" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M692" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="693" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A693" s="17">
         <v>1679</v>
       </c>
@@ -22111,8 +23223,9 @@
         <v>30</v>
       </c>
       <c r="L693" s="5"/>
-    </row>
-    <row r="694" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M693" s="5"/>
+    </row>
+    <row r="694" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A694" s="17">
         <v>1680</v>
       </c>
@@ -22149,8 +23262,11 @@
       <c r="L694" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="695" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M694" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="695" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A695" s="17">
         <v>1681</v>
       </c>
@@ -22185,8 +23301,11 @@
         <v>30</v>
       </c>
       <c r="L695" s="5"/>
-    </row>
-    <row r="696" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M695" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="696" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" s="17">
         <v>1682</v>
       </c>
@@ -22221,8 +23340,11 @@
         <v>30</v>
       </c>
       <c r="L696" s="5"/>
-    </row>
-    <row r="697" spans="1:12" s="4" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M696" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="697" spans="1:13" s="4" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A697" s="18">
         <v>1683</v>
       </c>
@@ -22253,8 +23375,9 @@
         <v>30</v>
       </c>
       <c r="L697" s="7"/>
-    </row>
-    <row r="698" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M697" s="7"/>
+    </row>
+    <row r="698" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="19">
         <v>1684</v>
       </c>
@@ -22285,8 +23408,9 @@
         <v>30</v>
       </c>
       <c r="L698" s="8"/>
-    </row>
-    <row r="699" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M698" s="8"/>
+    </row>
+    <row r="699" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A699" s="17">
         <v>1685</v>
       </c>
@@ -22321,8 +23445,11 @@
         <v>30</v>
       </c>
       <c r="L699" s="5"/>
-    </row>
-    <row r="700" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M699" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="700" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A700" s="17">
         <v>1686</v>
       </c>
@@ -22357,8 +23484,11 @@
         <v>30</v>
       </c>
       <c r="L700" s="5"/>
-    </row>
-    <row r="701" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M700" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="701" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A701" s="17">
         <v>1687</v>
       </c>
@@ -22393,8 +23523,11 @@
         <v>30</v>
       </c>
       <c r="L701" s="5"/>
-    </row>
-    <row r="702" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M701" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="702" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A702" s="17">
         <v>1688</v>
       </c>
@@ -22429,8 +23562,11 @@
         <v>30</v>
       </c>
       <c r="L702" s="5"/>
-    </row>
-    <row r="703" spans="1:12" s="4" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M702" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="703" spans="1:13" s="4" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A703" s="18">
         <v>1689</v>
       </c>
@@ -22465,8 +23601,11 @@
         <v>30</v>
       </c>
       <c r="L703" s="7"/>
-    </row>
-    <row r="704" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M703" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="704" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A704" s="19">
         <v>1690</v>
       </c>
@@ -22489,8 +23628,9 @@
         <v>33</v>
       </c>
       <c r="L704" s="8"/>
-    </row>
-    <row r="705" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M704" s="8"/>
+    </row>
+    <row r="705" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="17">
         <v>1691</v>
       </c>
@@ -22513,8 +23653,9 @@
         <v>33</v>
       </c>
       <c r="L705" s="5"/>
-    </row>
-    <row r="706" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M705" s="5"/>
+    </row>
+    <row r="706" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A706" s="17">
         <v>1692</v>
       </c>
@@ -22537,8 +23678,9 @@
         <v>33</v>
       </c>
       <c r="L706" s="5"/>
-    </row>
-    <row r="707" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M706" s="5"/>
+    </row>
+    <row r="707" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A707" s="17">
         <v>1693</v>
       </c>
@@ -22561,8 +23703,9 @@
         <v>33</v>
       </c>
       <c r="L707" s="5"/>
-    </row>
-    <row r="708" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M707" s="5"/>
+    </row>
+    <row r="708" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A708" s="17">
         <v>1694</v>
       </c>
@@ -22593,8 +23736,9 @@
         <v>30</v>
       </c>
       <c r="L708" s="5"/>
-    </row>
-    <row r="709" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M708" s="5"/>
+    </row>
+    <row r="709" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A709" s="17">
         <v>1695</v>
       </c>
@@ -22621,8 +23765,9 @@
       <c r="L709" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="710" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M709" s="5"/>
+    </row>
+    <row r="710" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A710" s="17">
         <v>1696</v>
       </c>
@@ -22647,8 +23792,9 @@
         <v>30</v>
       </c>
       <c r="L710" s="5"/>
-    </row>
-    <row r="711" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M710" s="5"/>
+    </row>
+    <row r="711" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A711" s="17">
         <v>1697</v>
       </c>
@@ -22673,8 +23819,9 @@
         <v>30</v>
       </c>
       <c r="L711" s="5"/>
-    </row>
-    <row r="712" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M711" s="5"/>
+    </row>
+    <row r="712" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A712" s="17">
         <v>1698</v>
       </c>
@@ -22701,8 +23848,9 @@
         <v>30</v>
       </c>
       <c r="L712" s="5"/>
-    </row>
-    <row r="713" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M712" s="5"/>
+    </row>
+    <row r="713" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A713" s="17">
         <v>1699</v>
       </c>
@@ -22725,8 +23873,9 @@
         <v>33</v>
       </c>
       <c r="L713" s="5"/>
-    </row>
-    <row r="714" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M713" s="5"/>
+    </row>
+    <row r="714" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A714" s="17">
         <v>1700</v>
       </c>
@@ -22751,8 +23900,9 @@
         <v>30</v>
       </c>
       <c r="L714" s="5"/>
-    </row>
-    <row r="715" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M714" s="5"/>
+    </row>
+    <row r="715" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A715" s="17">
         <v>1701</v>
       </c>
@@ -22783,8 +23933,9 @@
         <v>30</v>
       </c>
       <c r="L715" s="5"/>
-    </row>
-    <row r="716" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M715" s="5"/>
+    </row>
+    <row r="716" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A716" s="17">
         <v>1702</v>
       </c>
@@ -22807,8 +23958,9 @@
         <v>33</v>
       </c>
       <c r="L716" s="5"/>
-    </row>
-    <row r="717" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M716" s="5"/>
+    </row>
+    <row r="717" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A717" s="17">
         <v>1703</v>
       </c>
@@ -22831,8 +23983,9 @@
         <v>33</v>
       </c>
       <c r="L717" s="5"/>
-    </row>
-    <row r="718" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M717" s="5"/>
+    </row>
+    <row r="718" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A718" s="17">
         <v>1704</v>
       </c>
@@ -22855,8 +24008,9 @@
         <v>33</v>
       </c>
       <c r="L718" s="5"/>
-    </row>
-    <row r="719" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M718" s="5"/>
+    </row>
+    <row r="719" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A719" s="17">
         <v>1705</v>
       </c>
@@ -22879,8 +24033,9 @@
         <v>33</v>
       </c>
       <c r="L719" s="5"/>
-    </row>
-    <row r="720" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M719" s="5"/>
+    </row>
+    <row r="720" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A720" s="17">
         <v>1706</v>
       </c>
@@ -22913,8 +24068,9 @@
       <c r="L720" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="721" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M720" s="5"/>
+    </row>
+    <row r="721" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A721" s="17">
         <v>1707</v>
       </c>
@@ -22937,8 +24093,9 @@
         <v>33</v>
       </c>
       <c r="L721" s="5"/>
-    </row>
-    <row r="722" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M721" s="5"/>
+    </row>
+    <row r="722" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A722" s="17">
         <v>1708</v>
       </c>
@@ -22971,8 +24128,9 @@
       <c r="L722" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="723" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M722" s="5"/>
+    </row>
+    <row r="723" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A723" s="17">
         <v>1709</v>
       </c>
@@ -22999,8 +24157,9 @@
         <v>30</v>
       </c>
       <c r="L723" s="5"/>
-    </row>
-    <row r="724" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M723" s="5"/>
+    </row>
+    <row r="724" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A724" s="17">
         <v>1710</v>
       </c>
@@ -23025,8 +24184,9 @@
         <v>30</v>
       </c>
       <c r="L724" s="5"/>
-    </row>
-    <row r="725" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M724" s="5"/>
+    </row>
+    <row r="725" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A725" s="17">
         <v>1711</v>
       </c>
@@ -23051,8 +24211,9 @@
         <v>30</v>
       </c>
       <c r="L725" s="5"/>
-    </row>
-    <row r="726" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M725" s="5"/>
+    </row>
+    <row r="726" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A726" s="17">
         <v>1712</v>
       </c>
@@ -23077,8 +24238,9 @@
         <v>30</v>
       </c>
       <c r="L726" s="5"/>
-    </row>
-    <row r="727" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M726" s="5"/>
+    </row>
+    <row r="727" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A727" s="17">
         <v>1713</v>
       </c>
@@ -23103,8 +24265,9 @@
         <v>30</v>
       </c>
       <c r="L727" s="5"/>
-    </row>
-    <row r="728" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M727" s="5"/>
+    </row>
+    <row r="728" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A728" s="17">
         <v>1714</v>
       </c>
@@ -23129,8 +24292,9 @@
         <v>30</v>
       </c>
       <c r="L728" s="5"/>
-    </row>
-    <row r="729" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M728" s="5"/>
+    </row>
+    <row r="729" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A729" s="17">
         <v>1715</v>
       </c>
@@ -23155,8 +24319,9 @@
         <v>30</v>
       </c>
       <c r="L729" s="5"/>
-    </row>
-    <row r="730" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M729" s="5"/>
+    </row>
+    <row r="730" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A730" s="17">
         <v>1716</v>
       </c>
@@ -23189,8 +24354,9 @@
       <c r="L730" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="731" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M730" s="5"/>
+    </row>
+    <row r="731" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A731" s="17">
         <v>1717</v>
       </c>
@@ -23213,8 +24379,9 @@
         <v>33</v>
       </c>
       <c r="L731" s="5"/>
-    </row>
-    <row r="732" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M731" s="5"/>
+    </row>
+    <row r="732" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A732" s="17">
         <v>1718</v>
       </c>
@@ -23237,8 +24404,9 @@
       <c r="J732" s="5"/>
       <c r="K732" s="5"/>
       <c r="L732" s="5"/>
-    </row>
-    <row r="733" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M732" s="5"/>
+    </row>
+    <row r="733" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A733" s="17">
         <v>1719</v>
       </c>
@@ -23261,8 +24429,9 @@
         <v>33</v>
       </c>
       <c r="L733" s="5"/>
-    </row>
-    <row r="734" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M733" s="5"/>
+    </row>
+    <row r="734" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A734" s="17">
         <v>1720</v>
       </c>
@@ -23285,8 +24454,9 @@
         <v>33</v>
       </c>
       <c r="L734" s="5"/>
-    </row>
-    <row r="735" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M734" s="5"/>
+    </row>
+    <row r="735" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A735" s="17">
         <v>1721</v>
       </c>
@@ -23309,8 +24479,9 @@
         <v>33</v>
       </c>
       <c r="L735" s="5"/>
-    </row>
-    <row r="736" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M735" s="5"/>
+    </row>
+    <row r="736" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A736" s="17">
         <v>1722</v>
       </c>
@@ -23333,8 +24504,9 @@
         <v>33</v>
       </c>
       <c r="L736" s="5"/>
-    </row>
-    <row r="737" spans="1:12" s="4" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M736" s="5"/>
+    </row>
+    <row r="737" spans="1:13" s="4" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A737" s="18">
         <v>1723</v>
       </c>
@@ -23357,8 +24529,9 @@
         <v>33</v>
       </c>
       <c r="L737" s="7"/>
-    </row>
-    <row r="738" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M737" s="7"/>
+    </row>
+    <row r="738" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A738" s="19">
         <v>1724</v>
       </c>
@@ -23391,8 +24564,9 @@
       <c r="L738" s="8" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="739" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M738" s="8"/>
+    </row>
+    <row r="739" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A739" s="17">
         <v>1725</v>
       </c>
@@ -23425,8 +24599,11 @@
       </c>
       <c r="K739" s="5"/>
       <c r="L739" s="5"/>
-    </row>
-    <row r="740" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M739" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="740" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A740" s="17">
         <v>1726</v>
       </c>
@@ -23457,8 +24634,9 @@
       <c r="L740" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="741" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M740" s="5"/>
+    </row>
+    <row r="741" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A741" s="17">
         <v>1727</v>
       </c>
@@ -23493,8 +24671,11 @@
       <c r="L741" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="742" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M741" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="742" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A742" s="17">
         <v>1728</v>
       </c>
@@ -23529,8 +24710,11 @@
       <c r="L742" s="8" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="743" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M742" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="743" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A743" s="17">
         <v>1729</v>
       </c>
@@ -23563,8 +24747,11 @@
       </c>
       <c r="K743" s="5"/>
       <c r="L743" s="5"/>
-    </row>
-    <row r="744" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M743" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="744" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A744" s="17">
         <v>1730</v>
       </c>
@@ -23593,8 +24780,9 @@
       </c>
       <c r="K744" s="5"/>
       <c r="L744" s="5"/>
-    </row>
-    <row r="745" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M744" s="5"/>
+    </row>
+    <row r="745" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A745" s="17">
         <v>1730.5</v>
       </c>
@@ -23611,8 +24799,9 @@
       <c r="L745" s="5" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="746" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M745" s="5"/>
+    </row>
+    <row r="746" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A746" s="17">
         <v>1731</v>
       </c>
@@ -23647,8 +24836,11 @@
       <c r="L746" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="747" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M746" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="747" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A747" s="17">
         <v>1732</v>
       </c>
@@ -23677,8 +24869,9 @@
       </c>
       <c r="K747" s="5"/>
       <c r="L747" s="5"/>
-    </row>
-    <row r="748" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M747" s="5"/>
+    </row>
+    <row r="748" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A748" s="17">
         <v>1733</v>
       </c>
@@ -23713,8 +24906,11 @@
       <c r="L748" s="8" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="749" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M748" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="749" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A749" s="17">
         <v>1734</v>
       </c>
@@ -23747,8 +24943,11 @@
       </c>
       <c r="K749" s="5"/>
       <c r="L749" s="5"/>
-    </row>
-    <row r="750" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M749" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="750" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A750" s="17">
         <v>1735</v>
       </c>
@@ -23781,8 +24980,11 @@
       </c>
       <c r="K750" s="5"/>
       <c r="L750" s="5"/>
-    </row>
-    <row r="751" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M750" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="751" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A751" s="17">
         <v>1736</v>
       </c>
@@ -23815,8 +25017,11 @@
       </c>
       <c r="K751" s="5"/>
       <c r="L751" s="5"/>
-    </row>
-    <row r="752" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M751" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="752" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A752" s="17">
         <v>1737</v>
       </c>
@@ -23851,6 +25056,9 @@
       <c r="L752" s="8" t="s">
         <v>73</v>
       </c>
+      <c r="M752" s="8" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="753" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A753" s="17">
@@ -23887,6 +25095,9 @@
       <c r="L753" s="8" t="s">
         <v>73</v>
       </c>
+      <c r="M753" s="8" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="754" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A754" s="17">
@@ -23921,6 +25132,9 @@
       </c>
       <c r="K754" s="5"/>
       <c r="L754" s="5"/>
+      <c r="M754" s="5" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="755" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A755" s="17">
@@ -23949,6 +25163,7 @@
       <c r="L755" s="5" t="s">
         <v>96</v>
       </c>
+      <c r="M755" s="5"/>
     </row>
     <row r="756" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A756" s="17">
@@ -23985,6 +25200,9 @@
       <c r="L756" s="8" t="s">
         <v>73</v>
       </c>
+      <c r="M756" s="8" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="757" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A757" s="17">
@@ -24019,6 +25237,9 @@
       </c>
       <c r="K757" s="5"/>
       <c r="L757" s="5"/>
+      <c r="M757" s="5" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="758" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A758" s="17">
@@ -24053,6 +25274,9 @@
       </c>
       <c r="K758" s="5"/>
       <c r="L758" s="5"/>
+      <c r="M758" s="5" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="759" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A759" s="17">
@@ -24087,6 +25311,9 @@
       </c>
       <c r="K759" s="5"/>
       <c r="L759" s="5"/>
+      <c r="M759" s="5" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="760" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A760" s="17">
@@ -24121,6 +25348,9 @@
       </c>
       <c r="K760" s="5"/>
       <c r="L760" s="5"/>
+      <c r="M760" s="5" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="761" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A761" s="17">
@@ -24157,6 +25387,9 @@
       <c r="L761" s="8" t="s">
         <v>73</v>
       </c>
+      <c r="M761" s="8" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="762" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A762" s="17">
@@ -24191,6 +25424,9 @@
       </c>
       <c r="K762" s="5"/>
       <c r="L762" s="5"/>
+      <c r="M762" s="5" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="763" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A763" s="20"/>
@@ -24205,6 +25441,7 @@
       <c r="J763" s="2"/>
       <c r="K763" s="2"/>
       <c r="L763" s="2"/>
+      <c r="M763" s="2"/>
     </row>
     <row r="764" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A764" s="20"/>
@@ -24219,6 +25456,7 @@
       <c r="J764" s="2"/>
       <c r="K764" s="2"/>
       <c r="L764" s="2"/>
+      <c r="M764" s="2"/>
     </row>
     <row r="765" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A765" s="20"/>
@@ -24233,6 +25471,7 @@
       <c r="J765" s="2"/>
       <c r="K765" s="2"/>
       <c r="L765" s="2"/>
+      <c r="M765" s="2"/>
     </row>
     <row r="766" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A766" s="20"/>
@@ -24247,6 +25486,7 @@
       <c r="J766" s="2"/>
       <c r="K766" s="2"/>
       <c r="L766" s="2"/>
+      <c r="M766" s="2"/>
     </row>
     <row r="767" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A767" s="20"/>
@@ -24261,6 +25501,7 @@
       <c r="J767" s="2"/>
       <c r="K767" s="2"/>
       <c r="L767" s="2"/>
+      <c r="M767" s="2"/>
     </row>
     <row r="768" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A768" s="20"/>
@@ -24275,7 +25516,7 @@
       <c r="J768" s="2"/>
       <c r="K768" s="2"/>
       <c r="L768" s="2"/>
-      <c r="M768" s="1"/>
+      <c r="M768" s="2"/>
     </row>
     <row r="769" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A769" s="20"/>
@@ -24290,7 +25531,7 @@
       <c r="J769" s="2"/>
       <c r="K769" s="2"/>
       <c r="L769" s="2"/>
-      <c r="M769" s="1"/>
+      <c r="M769" s="2"/>
     </row>
     <row r="770" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A770" s="20"/>
@@ -24305,7 +25546,7 @@
       <c r="J770" s="2"/>
       <c r="K770" s="2"/>
       <c r="L770" s="2"/>
-      <c r="M770" s="1"/>
+      <c r="M770" s="2"/>
     </row>
     <row r="771" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A771" s="20"/>
@@ -24320,7 +25561,7 @@
       <c r="J771" s="2"/>
       <c r="K771" s="2"/>
       <c r="L771" s="2"/>
-      <c r="M771" s="1"/>
+      <c r="M771" s="2"/>
     </row>
     <row r="772" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A772" s="20"/>
@@ -24335,7 +25576,7 @@
       <c r="J772" s="2"/>
       <c r="K772" s="2"/>
       <c r="L772" s="2"/>
-      <c r="M772" s="1"/>
+      <c r="M772" s="2"/>
     </row>
     <row r="773" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A773" s="20"/>
@@ -24350,7 +25591,7 @@
       <c r="J773" s="2"/>
       <c r="K773" s="2"/>
       <c r="L773" s="2"/>
-      <c r="M773" s="1"/>
+      <c r="M773" s="2"/>
     </row>
     <row r="774" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A774" s="20"/>
@@ -24365,7 +25606,7 @@
       <c r="J774" s="2"/>
       <c r="K774" s="2"/>
       <c r="L774" s="2"/>
-      <c r="M774" s="1"/>
+      <c r="M774" s="2"/>
     </row>
     <row r="775" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A775" s="20"/>
@@ -24380,7 +25621,7 @@
       <c r="J775" s="2"/>
       <c r="K775" s="2"/>
       <c r="L775" s="2"/>
-      <c r="M775" s="1"/>
+      <c r="M775" s="2"/>
     </row>
     <row r="776" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A776" s="20"/>
@@ -24395,7 +25636,7 @@
       <c r="J776" s="2"/>
       <c r="K776" s="2"/>
       <c r="L776" s="2"/>
-      <c r="M776" s="1"/>
+      <c r="M776" s="2"/>
     </row>
     <row r="777" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A777" s="20"/>
@@ -24410,7 +25651,7 @@
       <c r="J777" s="2"/>
       <c r="K777" s="2"/>
       <c r="L777" s="2"/>
-      <c r="M777" s="1"/>
+      <c r="M777" s="2"/>
     </row>
     <row r="778" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A778" s="20"/>
@@ -24425,7 +25666,7 @@
       <c r="J778" s="2"/>
       <c r="K778" s="2"/>
       <c r="L778" s="2"/>
-      <c r="M778" s="1"/>
+      <c r="M778" s="2"/>
     </row>
     <row r="779" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A779" s="20"/>
@@ -24440,7 +25681,7 @@
       <c r="J779" s="2"/>
       <c r="K779" s="2"/>
       <c r="L779" s="2"/>
-      <c r="M779" s="1"/>
+      <c r="M779" s="2"/>
     </row>
     <row r="780" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A780" s="20"/>
@@ -24455,7 +25696,7 @@
       <c r="J780" s="2"/>
       <c r="K780" s="2"/>
       <c r="L780" s="2"/>
-      <c r="M780" s="1"/>
+      <c r="M780" s="2"/>
     </row>
     <row r="781" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A781" s="20"/>
@@ -24470,7 +25711,7 @@
       <c r="J781" s="2"/>
       <c r="K781" s="2"/>
       <c r="L781" s="2"/>
-      <c r="M781" s="1"/>
+      <c r="M781" s="2"/>
     </row>
     <row r="782" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A782" s="20"/>
@@ -24485,7 +25726,7 @@
       <c r="J782" s="2"/>
       <c r="K782" s="2"/>
       <c r="L782" s="2"/>
-      <c r="M782" s="1"/>
+      <c r="M782" s="2"/>
     </row>
     <row r="783" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A783" s="20"/>
@@ -24500,7 +25741,7 @@
       <c r="J783" s="2"/>
       <c r="K783" s="2"/>
       <c r="L783" s="2"/>
-      <c r="M783" s="1"/>
+      <c r="M783" s="2"/>
     </row>
     <row r="784" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A784" s="20"/>
@@ -24515,7 +25756,7 @@
       <c r="J784" s="2"/>
       <c r="K784" s="2"/>
       <c r="L784" s="2"/>
-      <c r="M784" s="1"/>
+      <c r="M784" s="2"/>
     </row>
     <row r="785" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A785" s="20"/>
@@ -24530,7 +25771,7 @@
       <c r="J785" s="2"/>
       <c r="K785" s="2"/>
       <c r="L785" s="2"/>
-      <c r="M785" s="1"/>
+      <c r="M785" s="2"/>
     </row>
     <row r="786" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A786" s="20"/>
@@ -24545,7 +25786,7 @@
       <c r="J786" s="2"/>
       <c r="K786" s="2"/>
       <c r="L786" s="2"/>
-      <c r="M786" s="1"/>
+      <c r="M786" s="2"/>
     </row>
     <row r="787" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A787" s="20"/>
@@ -24560,7 +25801,7 @@
       <c r="J787" s="2"/>
       <c r="K787" s="2"/>
       <c r="L787" s="2"/>
-      <c r="M787" s="1"/>
+      <c r="M787" s="2"/>
     </row>
     <row r="788" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A788" s="20"/>
@@ -24575,7 +25816,7 @@
       <c r="J788" s="2"/>
       <c r="K788" s="2"/>
       <c r="L788" s="2"/>
-      <c r="M788" s="1"/>
+      <c r="M788" s="2"/>
     </row>
     <row r="789" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A789" s="20"/>
@@ -24590,7 +25831,7 @@
       <c r="J789" s="2"/>
       <c r="K789" s="2"/>
       <c r="L789" s="2"/>
-      <c r="M789" s="1"/>
+      <c r="M789" s="2"/>
     </row>
     <row r="790" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A790" s="20"/>
@@ -24605,7 +25846,7 @@
       <c r="J790" s="2"/>
       <c r="K790" s="2"/>
       <c r="L790" s="2"/>
-      <c r="M790" s="1"/>
+      <c r="M790" s="2"/>
     </row>
     <row r="791" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A791" s="20"/>
@@ -24620,7 +25861,7 @@
       <c r="J791" s="2"/>
       <c r="K791" s="2"/>
       <c r="L791" s="2"/>
-      <c r="M791" s="1"/>
+      <c r="M791" s="2"/>
     </row>
     <row r="792" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A792" s="20"/>
@@ -24635,7 +25876,7 @@
       <c r="J792" s="2"/>
       <c r="K792" s="2"/>
       <c r="L792" s="2"/>
-      <c r="M792" s="1"/>
+      <c r="M792" s="2"/>
     </row>
     <row r="793" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A793" s="20"/>
@@ -24650,7 +25891,7 @@
       <c r="J793" s="2"/>
       <c r="K793" s="2"/>
       <c r="L793" s="2"/>
-      <c r="M793" s="1"/>
+      <c r="M793" s="2"/>
     </row>
     <row r="794" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A794" s="20"/>
@@ -24665,7 +25906,7 @@
       <c r="J794" s="2"/>
       <c r="K794" s="2"/>
       <c r="L794" s="2"/>
-      <c r="M794" s="1"/>
+      <c r="M794" s="2"/>
     </row>
     <row r="795" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A795" s="21"/>
